--- a/docs/Protein_DAVID_GOTERM_BP.xlsx
+++ b/docs/Protein_DAVID_GOTERM_BP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e342ab95cc976646/文档/GitHub/anti-coronavirus-drugs/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048C641D848685ADE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BB9322A-129E-4A99-956F-9C055AE99682}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC1048C641D848685ADE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C92DF47-588B-40C4-854C-7DDC24050948}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="419">
   <si>
     <t>Category</t>
   </si>
@@ -33,9 +33,6 @@
     <t>GO ID</t>
   </si>
   <si>
-    <t>GO Term</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -66,54 +63,36 @@
     <t>FDR</t>
   </si>
   <si>
-    <t>GOTERM:BP:DIRECT</t>
-  </si>
-  <si>
     <t>GO:0018108</t>
   </si>
   <si>
     <t>peptidyl-tyrosine phosphorylation</t>
   </si>
   <si>
-    <t>P36507, P09769, P54760, P51692, P09619, P04629, Q02750, P10721, P12931, P30530, P36888, P54756, Q06187, P16234, P11274, P00519, P06241, P29317, P42684, P07333, P09038, Q9UM73</t>
-  </si>
-  <si>
     <t>GO:0042493</t>
   </si>
   <si>
     <t>response to drug</t>
   </si>
   <si>
-    <t>P28223, P06239, P06858, P29274, P11802, P14416, P04818, P12931, P17405, P41595, P21728, P35462, P08183, P04083, P06241, P31645, P28335, P13637, P04629, P35348, P00519, P05362, P42574, P05023, Q01959</t>
-  </si>
-  <si>
     <t>GO:0038083</t>
   </si>
   <si>
     <t>peptidyl-tyrosine autophosphorylation</t>
   </si>
   <si>
-    <t>P00519, P06239, P09769, P07947, P41240, P06241, P12931, P42684, Q08345, P42685, Q06187</t>
-  </si>
-  <si>
     <t>GO:0007169</t>
   </si>
   <si>
     <t>transmembrane receptor protein tyrosine kinase signaling pathway</t>
   </si>
   <si>
-    <t>P06239, P09769, P07947, P04629, P10721, Q08345, P36888, Q06187, P41240, P06241, P42684, P42685, P07333, Q9UM73</t>
-  </si>
-  <si>
     <t>GO:0070374</t>
   </si>
   <si>
     <t>positive regulation of ERK1 and ERK2 cascade</t>
   </si>
   <si>
-    <t>P09429, P28335, P36507, P28223, P09619, P14416, P04629, Q02750, P12931, P35348, P16234, P00519, P41595, P35372, P05362, P07333, P09038</t>
-  </si>
-  <si>
     <t>GO:0001975</t>
   </si>
   <si>
@@ -129,9 +108,6 @@
     <t>protein autophosphorylation</t>
   </si>
   <si>
-    <t>P09769, P54760, P09619, P04629, P10721, P12931, Q08345, P36888, P16234, P42345, P11274, P00519, P41240, P07333, Q9UM73</t>
-  </si>
-  <si>
     <t>GO:0007197</t>
   </si>
   <si>
@@ -207,9 +183,6 @@
     <t>regulation of cell proliferation</t>
   </si>
   <si>
-    <t>O95259, P06239, P09769, P07947, P10721, P12931, Q06187, Q9BYF1, P00519, P41240, P04083, P06241, P42684</t>
-  </si>
-  <si>
     <t>GO:0048148</t>
   </si>
   <si>
@@ -225,9 +198,6 @@
     <t>signal transduction</t>
   </si>
   <si>
-    <t>O75469, P11229, P11802, P12931, P17405, P10275, P42345, P11274, O60760, P04083, Q92731, P03372, P42684, Q15125, P07333, P09038, P06401, Q16539, P28472, P09619, Q02750, P10721, P30530, P35348, P20309, P08173, P04150, P01189, P08235, Q9UM73</t>
-  </si>
-  <si>
     <t>GO:0006614</t>
   </si>
   <si>
@@ -252,18 +222,12 @@
     <t>chemical synaptic transmission</t>
   </si>
   <si>
-    <t>P31645, P34969, P28335, P28223, O75311, P50406, Q05940, P21918, P08908, P54219, P41145, P41595, P41143, P35372</t>
-  </si>
-  <si>
     <t>GO:0043552</t>
   </si>
   <si>
     <t>positive regulation of phosphatidylinositol 3-kinase activity</t>
   </si>
   <si>
-    <t>P16234, P09769, P09619, P10721, P12931, P36888, P09038</t>
-  </si>
-  <si>
     <t>GO:0045907</t>
   </si>
   <si>
@@ -303,9 +267,6 @@
     <t>positive regulation of MAP kinase activity</t>
   </si>
   <si>
-    <t>P28223, P41595, P41240, P09619, P10721, P12931, P36888, P09038</t>
-  </si>
-  <si>
     <t>GO:0000184</t>
   </si>
   <si>
@@ -378,9 +339,6 @@
     <t>innate immune response</t>
   </si>
   <si>
-    <t>P09429, P06239, P09769, P07947, Q9UM07, P12931, P30530, Q06187, P00519, P00748, P41240, P04083, P06241, P42684, P42685, P07333</t>
-  </si>
-  <si>
     <t>GO:0060134</t>
   </si>
   <si>
@@ -423,9 +381,6 @@
     <t>positive regulation of cell proliferation</t>
   </si>
   <si>
-    <t>O15392, P28223, P11229, P09619, P11802, P10721, P08908, P10275, P36888, P16234, P41595, P35462, P00734, P08887, P07333, P09038</t>
-  </si>
-  <si>
     <t>GO:0006364</t>
   </si>
   <si>
@@ -477,9 +432,6 @@
     <t>monoamine transport</t>
   </si>
   <si>
-    <t>P31645, Q05940, P54219, Q01959</t>
-  </si>
-  <si>
     <t>GO:0050966</t>
   </si>
   <si>
@@ -513,9 +465,6 @@
     <t>cellular response to lipopolysaccharide</t>
   </si>
   <si>
-    <t>Q16539, P41145, P00519, P05362, P45983, P09211, P12931, P30530</t>
-  </si>
-  <si>
     <t>GO:0042060</t>
   </si>
   <si>
@@ -576,18 +525,12 @@
     <t>response to toxic substance</t>
   </si>
   <si>
-    <t>P31645, P09619, P11802, P14416, Q05940, P04818, P09211</t>
-  </si>
-  <si>
     <t>GO:0048013</t>
   </si>
   <si>
     <t>ephrin receptor signaling pathway</t>
   </si>
   <si>
-    <t>P07947, P54760, P06241, P04629, P12931, P29317, P54756</t>
-  </si>
-  <si>
     <t>GO:0048146</t>
   </si>
   <si>
@@ -621,9 +564,6 @@
     <t>protein phosphorylation</t>
   </si>
   <si>
-    <t>O15392, P06239, P09769, P11802, P04629, Q06187, P42345, P11274, P41240, Q00534, P06241, Q9NYL2, P45983, P42685</t>
-  </si>
-  <si>
     <t>GO:0007191</t>
   </si>
   <si>
@@ -648,18 +588,12 @@
     <t>negative regulation of cell proliferation</t>
   </si>
   <si>
-    <t>P29274, P14416, P04629, Q02750, Q08345, P10275, P35348, P41240, Q00534, P35372, P42685, P07333, P09038</t>
-  </si>
-  <si>
     <t>GO:0043200</t>
   </si>
   <si>
     <t>response to amino acid</t>
   </si>
   <si>
-    <t>P42345, O75311, P05362, P09211, P42574</t>
-  </si>
-  <si>
     <t>GO:0007628</t>
   </si>
   <si>
@@ -738,9 +672,6 @@
     <t>activation of MAPK activity</t>
   </si>
   <si>
-    <t>Q16539, P36507, Q02750, P21917, P10721, P09038, Q9UM73</t>
-  </si>
-  <si>
     <t>GO:0042310</t>
   </si>
   <si>
@@ -801,9 +732,6 @@
     <t>T cell costimulation</t>
   </si>
   <si>
-    <t>P42345, P06239, P07947, P41240, P06241, P12931</t>
-  </si>
-  <si>
     <t>GO:0060048</t>
   </si>
   <si>
@@ -819,9 +747,6 @@
     <t>leukocyte migration</t>
   </si>
   <si>
-    <t>P06239, P07947, P62937, P00734, P06241, P05362, P12931</t>
-  </si>
-  <si>
     <t>GO:0019229</t>
   </si>
   <si>
@@ -972,9 +897,6 @@
     <t>positive regulation of smooth muscle cell proliferation</t>
   </si>
   <si>
-    <t>P42345, P09619, Q92570, P08887, P09038</t>
-  </si>
-  <si>
     <t>GO:0009314</t>
   </si>
   <si>
@@ -990,9 +912,6 @@
     <t>positive regulation of gene expression</t>
   </si>
   <si>
-    <t>P31645, Q16539, P42345, O75469, Q00534, P45983, Q02750, P10721, P10275</t>
-  </si>
-  <si>
     <t>GO:0001662</t>
   </si>
   <si>
@@ -1062,9 +981,6 @@
     <t>response to virus</t>
   </si>
   <si>
-    <t>P09769, P08172, Q00534, P48551, P12931, P17181</t>
-  </si>
-  <si>
     <t>GO:0003007</t>
   </si>
   <si>
@@ -1131,9 +1047,6 @@
     <t>central nervous system development</t>
   </si>
   <si>
-    <t>P41240, P29274, P06241, P09211, P12931, Q03393</t>
-  </si>
-  <si>
     <t>GO:0007623</t>
   </si>
   <si>
@@ -1179,10 +1092,196 @@
     <t>P09619, P14416, P07333</t>
   </si>
   <si>
-    <t>Note: filtered FDR values less than 0.005</t>
-  </si>
-  <si>
-    <t>Pvalue</t>
+    <t>GO TERM</t>
+  </si>
+  <si>
+    <t>PValue</t>
+  </si>
+  <si>
+    <t>GOTERM_BP_DIRECT</t>
+  </si>
+  <si>
+    <t>P36507, P09769, P54760, P51692, P07948, P09619, P04629, Q02750, P10721, P12931, P30530, P36888, P54756, Q06187, P16234, P11274, P00519, P06241, P29317, P42684, P07333, P09038, Q9UM73</t>
+  </si>
+  <si>
+    <t>P28223, P06239, P06858, P29274, P07948, P11802, P14416, P04818, P12931, P17405, P41595, P21728, P35462, P08183, P04083, P06241, P31645, P28335, P13637, P04629, P35348, P00519, P23975, P05362, P42574, P05023, Q01959</t>
+  </si>
+  <si>
+    <t>P00519, P06239, P09769, P07947, P41240, P07948, P06241, P12931, P42684, Q08345, P42685, Q06187</t>
+  </si>
+  <si>
+    <t>P06239, P09769, P07947, P07948, P04629, P10721, Q08345, P36888, Q06187, P41240, P06241, P42684, P42685, P07333, Q9UM73</t>
+  </si>
+  <si>
+    <t>P09429, P28335, P36507, P28223, P09619, P14416, P04629, Q02750, P12931, P35348, P16234, P00519, P41595, P35372, P05362, P07333, P09038, P01375</t>
+  </si>
+  <si>
+    <t>P09769, P54760, P07948, P09619, P04629, P10721, P12931, Q08345, P36888, P16234, P42345, P11274, P00519, P41240, P07333, Q9UM73</t>
+  </si>
+  <si>
+    <t>P16234, P09769, P07948, P09619, P10721, P12931, P36888, P09038</t>
+  </si>
+  <si>
+    <t>O95259, P06239, P09769, P07947, P10721, P12931, Q06187, Q9BYF1, P00519, P41240, P04083, P06241, P42684, P01375</t>
+  </si>
+  <si>
+    <t>O75469, P11229, P49069, P07948, P11802, P12931, P17405, P10275, P42345, P11274, O60760, P04083, Q92731, P03372, P42684, Q15125, P07333, P09038, P06401, Q16539, P28472, P09619, Q02750, P10721, P30530, P35348, P20309, P08173, P04150, P01189, P08235, Q9UM73</t>
+  </si>
+  <si>
+    <t>P31645, P34969, P28335, P28223, O75311, P50406, Q05940, P21918, P08908, P54219, P41145, P41595, P41143, P35372, P23975</t>
+  </si>
+  <si>
+    <t>P28223, P41595, P41240, P09619, P10721, P12931, P36888, P09038, P01375</t>
+  </si>
+  <si>
+    <t>P31645, P23975, Q05940, P54219, Q01959</t>
+  </si>
+  <si>
+    <t>P09429, P06239, P09769, P07947, Q9UM07, P07948, P12931, P30530, Q06187, P00519, P00748, P41240, P04083, P06241, P42684, P42685, P07333</t>
+  </si>
+  <si>
+    <t>O15392, P28223, P11229, P07948, P09619, P11802, P10721, P08908, P10275, P36888, P16234, P41595, P35462, P00734, P08887, P07333, P09038</t>
+  </si>
+  <si>
+    <t>Q16539, P41145, P00519, P05362, P45983, P09211, P12931, P30530, P01375</t>
+  </si>
+  <si>
+    <t>P42345, P07948, O75311, P05362, P09211, P42574</t>
+  </si>
+  <si>
+    <t>P31645, P07948, P09619, P11802, P14416, Q05940, P04818, P09211</t>
+  </si>
+  <si>
+    <t>P07947, P54760, P07948, P06241, P04629, P12931, P29317, P54756</t>
+  </si>
+  <si>
+    <t>P29274, P07948, P14416, P04629, Q02750, Q08345, P10275, P35348, P41240, Q00534, P35372, P42685, P07333, P09038</t>
+  </si>
+  <si>
+    <t>Q16539, P36507, Q02750, P21917, P10721, P09038, P01375, Q9UM73</t>
+  </si>
+  <si>
+    <t>O15392, P06239, P09769, P07948, P11802, P04629, Q06187, P42345, P11274, P41240, Q00534, P06241, Q9NYL2, P45983, P42685</t>
+  </si>
+  <si>
+    <t>P42345, P06239, P07947, P41240, P07948, P06241, P12931</t>
+  </si>
+  <si>
+    <t>P06239, P07947, P62937, P00734, P07948, P06241, P05362, P12931</t>
+  </si>
+  <si>
+    <t>P42345, P09619, Q92570, P08887, P09038, P01375</t>
+  </si>
+  <si>
+    <t>P09769, P08172, Q00534, P48551, P12931, P17181, P01375</t>
+  </si>
+  <si>
+    <t>P31645, Q16539, P42345, O75469, Q00534, P45983, Q02750, P10721, P10275, P01375</t>
+  </si>
+  <si>
+    <t>GO:0045429</t>
+  </si>
+  <si>
+    <t>positive regulation of nitric oxide biosynthetic process</t>
+  </si>
+  <si>
+    <t>P42345, P35372, P05362, P03372, P01375</t>
+  </si>
+  <si>
+    <t>P41240, P29274, P07948, P06241, P09211, P12931, Q03393</t>
+  </si>
+  <si>
+    <t>GO:0051897</t>
+  </si>
+  <si>
+    <t>positive regulation of protein kinase B signaling</t>
+  </si>
+  <si>
+    <t>P42345, P12931, P00742, P30530, P09038, P01375</t>
+  </si>
+  <si>
+    <t>GO:0030316</t>
+  </si>
+  <si>
+    <t>osteoclast differentiation</t>
+  </si>
+  <si>
+    <t>Q16539, P29317, P07333, P01375</t>
+  </si>
+  <si>
+    <t>GO:0030335</t>
+  </si>
+  <si>
+    <t>positive regulation of cell migration</t>
+  </si>
+  <si>
+    <t>P16234, P09769, P21728, P07948, P09619, P10721, P00742, P07333</t>
+  </si>
+  <si>
+    <t>GO:0010629</t>
+  </si>
+  <si>
+    <t>negative regulation of gene expression</t>
+  </si>
+  <si>
+    <t>P36507, P41143, P06241, P03372, Q02750, P06401, P01375</t>
+  </si>
+  <si>
+    <t>GO:0050715</t>
+  </si>
+  <si>
+    <t>positive regulation of cytokine secretion</t>
+  </si>
+  <si>
+    <t>P09769, P41595, P12931, P01375</t>
+  </si>
+  <si>
+    <t>GO:0048678</t>
+  </si>
+  <si>
+    <t>response to axon injury</t>
+  </si>
+  <si>
+    <t>P07948, P14416, P04629, P09038</t>
+  </si>
+  <si>
+    <t>GO:0006954</t>
+  </si>
+  <si>
+    <t>inflammatory response</t>
+  </si>
+  <si>
+    <t>P09429, Q9H3N8, P29274, P07948, P04083, P35367, P10721, P29317, P07333, P30530, P01375</t>
+  </si>
+  <si>
+    <t>GO:0000165</t>
+  </si>
+  <si>
+    <t>MAPK cascade</t>
+  </si>
+  <si>
+    <t>P16234, P36507, P0DP23, P09619, P06241, Q02750, P10721, P09038, P01375</t>
+  </si>
+  <si>
+    <t>GO:0051384</t>
+  </si>
+  <si>
+    <t>response to glucocorticoid</t>
+  </si>
+  <si>
+    <t>P09429, P04818, P42574, P50135, P01375</t>
+  </si>
+  <si>
+    <t>GO:0030168</t>
+  </si>
+  <si>
+    <t>platelet activation</t>
+  </si>
+  <si>
+    <t>P06239, P00734, P07948, P06241, P12931, P30530</t>
+  </si>
+  <si>
+    <t>Note: FDR adjusted p-value is less than 0.05</t>
   </si>
 </sst>
 </file>
@@ -1509,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1531,66 +1630,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>15.384615384615385</v>
+        <v>15.646258503401361</v>
       </c>
       <c r="F2">
-        <v>6.2643653139595359E-20</v>
+        <v>5.1303856231829694E-21</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>358</v>
       </c>
       <c r="H2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I2">
         <v>153</v>
@@ -1599,42 +1698,42 @@
         <v>16792</v>
       </c>
       <c r="K2">
-        <v>17.124368423492328</v>
+        <v>17.408879873788596</v>
       </c>
       <c r="L2">
-        <v>1.0655685399045171E-16</v>
+        <v>9.229563736106162E-18</v>
       </c>
       <c r="M2">
-        <v>1.0655685399045171E-16</v>
+        <v>9.229563736106162E-18</v>
       </c>
       <c r="N2">
-        <v>9.9102259266839859E-17</v>
+        <v>8.4907882063678147E-18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>17.482517482517483</v>
+        <v>18.367346938775512</v>
       </c>
       <c r="F3">
-        <v>5.537349475385093E-17</v>
+        <v>6.9303753958083022E-19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="H3">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I3">
         <v>304</v>
@@ -1643,42 +1742,42 @@
         <v>16792</v>
       </c>
       <c r="K3">
-        <v>9.7937663307204179</v>
+        <v>10.285480943738659</v>
       </c>
       <c r="L3">
-        <v>9.4190314576300436E-14</v>
+        <v>1.2467745337059136E-15</v>
       </c>
       <c r="M3">
-        <v>4.7095157288150218E-14</v>
+        <v>6.2338726685295682E-16</v>
       </c>
       <c r="N3">
-        <v>4.3800434350296087E-14</v>
+        <v>5.7348856400313702E-16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>7.6923076923076925</v>
+        <v>8.1632653061224492</v>
       </c>
       <c r="F4">
-        <v>8.0300446996941999E-13</v>
+        <v>2.3398766820290769E-14</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>360</v>
       </c>
       <c r="H4">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I4">
         <v>40</v>
@@ -1687,42 +1786,42 @@
         <v>16792</v>
       </c>
       <c r="K4">
-        <v>32.750354609929076</v>
+        <v>34.742068965517241</v>
       </c>
       <c r="L4">
-        <v>1.3659443576230501E-9</v>
+        <v>4.2142844769443855E-11</v>
       </c>
       <c r="M4">
-        <v>4.5530353447266114E-10</v>
+        <v>1.4031460503234364E-11</v>
       </c>
       <c r="N4">
-        <v>4.2345102383054083E-10</v>
+        <v>1.2908319695860407E-11</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>9.79020979020979</v>
+        <v>10.204081632653061</v>
       </c>
       <c r="F5">
-        <v>1.1950663328065954E-12</v>
+        <v>8.0319184939941943E-14</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>361</v>
       </c>
       <c r="H5">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I5">
         <v>96</v>
@@ -1731,42 +1830,42 @@
         <v>16792</v>
       </c>
       <c r="K5">
-        <v>17.367612293144209</v>
+        <v>18.094827586206897</v>
       </c>
       <c r="L5">
-        <v>2.032769952364788E-9</v>
+        <v>1.4440415530003747E-10</v>
       </c>
       <c r="M5">
-        <v>4.5940086276490278E-10</v>
+        <v>3.6123553426738888E-11</v>
       </c>
       <c r="N5">
-        <v>4.2726170775665852E-10</v>
+        <v>3.3232062768900981E-11</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>11.888111888111888</v>
+        <v>12.244897959183673</v>
       </c>
       <c r="F6">
-        <v>1.3503846642119424E-12</v>
+        <v>1.5140149765523864E-13</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>362</v>
       </c>
       <c r="H6">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I6">
         <v>175</v>
@@ -1775,42 +1874,42 @@
         <v>16792</v>
       </c>
       <c r="K6">
-        <v>11.568956433637284</v>
+        <v>11.911566502463055</v>
       </c>
       <c r="L6">
-        <v>2.296969614512534E-9</v>
+        <v>2.7243052258540956E-10</v>
       </c>
       <c r="M6">
-        <v>4.5940086276490278E-10</v>
+        <v>5.4474258856354862E-11</v>
       </c>
       <c r="N6">
-        <v>4.2726170775665852E-10</v>
+        <v>5.0113895723883992E-11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>6.9930069930069934</v>
+        <v>6.8027210884353746</v>
       </c>
       <c r="F7">
-        <v>2.5899881084136156E-12</v>
+        <v>3.3464305891573212E-12</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I7">
         <v>31</v>
@@ -1819,42 +1918,42 @@
         <v>16792</v>
       </c>
       <c r="K7">
-        <v>38.416838252116221</v>
+        <v>37.357063403781979</v>
       </c>
       <c r="L7">
-        <v>4.4056568393457951E-9</v>
+        <v>6.0202351992444392E-9</v>
       </c>
       <c r="M7">
-        <v>7.3426162873526E-10</v>
+        <v>1.00337143831567E-9</v>
       </c>
       <c r="N7">
-        <v>6.8289353125172332E-10</v>
+        <v>9.2305710417589437E-10</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>10.48951048951049</v>
+        <v>10.884353741496598</v>
       </c>
       <c r="F8">
-        <v>1.7471211905190119E-10</v>
+        <v>2.1031848544425568E-11</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="H8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I8">
         <v>172</v>
@@ -1863,42 +1962,42 @@
         <v>16792</v>
       </c>
       <c r="K8">
-        <v>10.385947550717466</v>
+        <v>10.772734562951081</v>
       </c>
       <c r="L8">
-        <v>2.9718529515054826E-7</v>
+        <v>3.7836284771941564E-8</v>
       </c>
       <c r="M8">
-        <v>4.2455044929611989E-8</v>
+        <v>5.4051850759173707E-9</v>
       </c>
       <c r="N8">
-        <v>3.948493890572967E-8</v>
+        <v>4.972529905860616E-9</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>4.1958041958041958</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F9">
-        <v>7.76975085201058E-10</v>
+        <v>8.9595475154573065E-10</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -1907,42 +2006,42 @@
         <v>16792</v>
       </c>
       <c r="K9">
-        <v>102.0790273556231</v>
+        <v>99.263054187192125</v>
       </c>
       <c r="L9">
-        <v>1.3216336699484188E-6</v>
+        <v>1.6118213056470765E-6</v>
       </c>
       <c r="M9">
-        <v>1.6520432749087497E-7</v>
+        <v>2.0147782475384619E-7</v>
       </c>
       <c r="N9">
-        <v>1.5364682309850921E-7</v>
+        <v>1.8535063922602303E-7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>4.1958041958041958</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F10">
-        <v>2.0580521765843522E-9</v>
+        <v>2.3727316064160719E-9</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -1951,42 +2050,42 @@
         <v>16792</v>
       </c>
       <c r="K10">
-        <v>89.319148936170208</v>
+        <v>86.855172413793113</v>
       </c>
       <c r="L10">
-        <v>3.5007406224973892E-6</v>
+        <v>4.2685349834759023E-6</v>
       </c>
       <c r="M10">
-        <v>3.8897186137444256E-7</v>
+        <v>4.7428268443805704E-7</v>
       </c>
       <c r="N10">
-        <v>3.6175983815071609E-7</v>
+        <v>4.3631897873539991E-7</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>6.2937062937062942</v>
+        <v>6.1224489795918364</v>
       </c>
       <c r="F11">
-        <v>3.1723068996187698E-9</v>
+        <v>3.9658081978188792E-9</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I11">
         <v>45</v>
@@ -1995,42 +2094,42 @@
         <v>16792</v>
       </c>
       <c r="K11">
-        <v>23.818439716312056</v>
+        <v>23.161379310344827</v>
       </c>
       <c r="L11">
-        <v>5.3960794212937202E-6</v>
+        <v>7.1344635828030079E-6</v>
       </c>
       <c r="M11">
-        <v>5.3960940362515278E-7</v>
+        <v>7.1344889478761638E-7</v>
       </c>
       <c r="N11">
-        <v>5.0185895151968931E-7</v>
+        <v>6.5634125673902451E-7</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
-        <v>6.9930069930069934</v>
+        <v>6.8027210884353746</v>
       </c>
       <c r="F12">
-        <v>3.7162126618843884E-9</v>
+        <v>4.7655034386971717E-9</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I12">
         <v>66</v>
@@ -2039,42 +2138,42 @@
         <v>16792</v>
       </c>
       <c r="K12">
-        <v>18.044272512357619</v>
+        <v>17.54649947753396</v>
       </c>
       <c r="L12">
-        <v>6.3212577857685304E-6</v>
+        <v>8.5731039530800857E-6</v>
       </c>
       <c r="M12">
-        <v>5.7466161253321313E-7</v>
+        <v>7.7937642601965555E-7</v>
       </c>
       <c r="N12">
-        <v>5.3445894828191838E-7</v>
+        <v>7.1699165373125633E-7</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>4.1958041958041958</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F13">
-        <v>4.5995980610801372E-9</v>
+        <v>5.3018248691304489E-9</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -2083,5037 +2182,5521 @@
         <v>16792</v>
       </c>
       <c r="K13">
-        <v>79.394799054373522</v>
+        <v>77.204597701149424</v>
       </c>
       <c r="L13">
-        <v>7.8238856701107196E-6</v>
+        <v>9.5379374764892333E-6</v>
       </c>
       <c r="M13">
-        <v>6.5199302515810946E-7</v>
+        <v>7.9483191163047312E-7</v>
       </c>
       <c r="N13">
-        <v>6.0638034438573148E-7</v>
+        <v>7.3121001320090773E-7</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14">
-        <v>5.5944055944055942</v>
+        <v>5.4421768707482991</v>
       </c>
       <c r="F14">
-        <v>6.81014371897357E-9</v>
+        <v>6.52059322669799E-9</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>364</v>
       </c>
       <c r="H14">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14">
         <v>16792</v>
       </c>
       <c r="K14">
-        <v>29.773049645390071</v>
+        <v>29.885650723025581</v>
       </c>
       <c r="L14">
-        <v>1.1583987329255585E-5</v>
+        <v>1.1730478360227892E-5</v>
       </c>
       <c r="M14">
-        <v>8.9108111276723399E-7</v>
+        <v>8.8768365291676703E-7</v>
       </c>
       <c r="N14">
-        <v>8.2874210487816835E-7</v>
+        <v>8.1662948614633094E-7</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>6.9930069930069934</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="F15">
-        <v>3.2561612901526487E-8</v>
+        <v>6.9080439915701715E-9</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>365</v>
       </c>
       <c r="H15">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I15">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="J15">
         <v>16792</v>
       </c>
       <c r="K15">
-        <v>14.177642688280987</v>
+        <v>8.7637651444547995</v>
       </c>
       <c r="L15">
-        <v>5.5385770512006438E-5</v>
+        <v>1.2427494023192764E-5</v>
       </c>
       <c r="M15">
-        <v>3.956235967535468E-6</v>
+        <v>8.8768365291676703E-7</v>
       </c>
       <c r="N15">
-        <v>3.6794622578724929E-6</v>
+        <v>8.1662948614633094E-7</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>4.1958041958041958</v>
+        <v>5.4421768707482991</v>
       </c>
       <c r="F16">
-        <v>4.5735769530384578E-8</v>
+        <v>8.2868417790292899E-9</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H16">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I16">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J16">
         <v>16792</v>
       </c>
       <c r="K16">
-        <v>54.965630114566281</v>
+        <v>28.951724137931034</v>
       </c>
       <c r="L16">
-        <v>7.7793519634217212E-5</v>
+        <v>1.4907917278872418E-5</v>
       </c>
       <c r="M16">
-        <v>5.0827322760657944E-6</v>
+        <v>9.9386855736491291E-7</v>
       </c>
       <c r="N16">
-        <v>4.7271501826784752E-6</v>
+        <v>9.1431487628623164E-7</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>9.0909090909090917</v>
+        <v>21.768707482993197</v>
       </c>
       <c r="F17">
-        <v>4.7809357094093303E-8</v>
+        <v>1.0933442298099933E-8</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>366</v>
       </c>
       <c r="H17">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I17">
-        <v>185</v>
+        <v>1161</v>
       </c>
       <c r="J17">
         <v>16792</v>
       </c>
       <c r="K17">
-        <v>8.3686409814069389</v>
+        <v>3.1919213519855054</v>
       </c>
       <c r="L17">
-        <v>8.132041175501481E-5</v>
+        <v>1.9669069299399489E-5</v>
       </c>
       <c r="M17">
-        <v>5.0827322760657944E-6</v>
+        <v>1.2293289183926111E-6</v>
       </c>
       <c r="N17">
-        <v>4.7271501826784752E-6</v>
+        <v>1.1309279377097118E-6</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>4.1958041958041958</v>
+        <v>10.204081632653061</v>
       </c>
       <c r="F18">
-        <v>7.0668292059900775E-8</v>
+        <v>1.9283683677935264E-8</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>367</v>
       </c>
       <c r="H18">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="J18">
         <v>16792</v>
       </c>
       <c r="K18">
-        <v>51.039513677811549</v>
+        <v>7.2379310344827585</v>
       </c>
       <c r="L18">
-        <v>1.2019954457720416E-4</v>
+        <v>3.4690745482790497E-5</v>
       </c>
       <c r="M18">
-        <v>7.0709861643465423E-6</v>
+        <v>2.0406674668591495E-6</v>
       </c>
       <c r="N18">
-        <v>6.5763081199272372E-6</v>
+        <v>1.8773233227636979E-6</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>20.97902097902098</v>
+        <v>6.1224489795918364</v>
       </c>
       <c r="F19">
-        <v>7.9087203110979534E-8</v>
+        <v>3.6877411009475091E-8</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="H19">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I19">
-        <v>1161</v>
+        <v>59</v>
       </c>
       <c r="J19">
         <v>16792</v>
       </c>
       <c r="K19">
-        <v>3.0773177928051751</v>
+        <v>17.665458796025714</v>
       </c>
       <c r="L19">
-        <v>1.3451828942989685E-4</v>
+        <v>6.6340263024433632E-5</v>
       </c>
       <c r="M19">
-        <v>7.4737406939875661E-6</v>
+        <v>3.6856923558914273E-6</v>
       </c>
       <c r="N19">
-        <v>6.9508864067538676E-6</v>
+        <v>3.3906730678156265E-6</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>10</v>
       </c>
       <c r="E20">
-        <v>6.9930069930069934</v>
+        <v>6.8027210884353746</v>
       </c>
       <c r="F20">
-        <v>8.7688214951845353E-8</v>
+        <v>4.1594548628223635E-8</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I20">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J20">
         <v>16792</v>
       </c>
       <c r="K20">
-        <v>12.669382827825563</v>
+        <v>13.786535303776683</v>
       </c>
       <c r="L20">
-        <v>1.4914653665332178E-4</v>
+        <v>7.4825794867949824E-5</v>
       </c>
       <c r="M20">
-        <v>7.8504028227941549E-6</v>
+        <v>3.9383469990618063E-6</v>
       </c>
       <c r="N20">
-        <v>7.3011976870431227E-6</v>
+        <v>3.6231041041952696E-6</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="F21">
+        <v>5.2676248598448194E-8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21">
+        <v>145</v>
+      </c>
+      <c r="I21">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>5.5944055944055942</v>
-      </c>
-      <c r="F21">
-        <v>9.826381720460508E-8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21">
-        <v>141</v>
-      </c>
-      <c r="I21">
-        <v>46</v>
-      </c>
       <c r="J21">
         <v>16792</v>
       </c>
       <c r="K21">
-        <v>20.71168670983657</v>
+        <v>53.449336870026521</v>
       </c>
       <c r="L21">
-        <v>1.6713279301805439E-4</v>
+        <v>9.4760083680478502E-5</v>
       </c>
       <c r="M21">
-        <v>8.3573376532516617E-6</v>
+        <v>4.7382285614304151E-6</v>
       </c>
       <c r="N21">
-        <v>7.7726679408842612E-6</v>
+        <v>4.3589595715215877E-6</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="F22">
+        <v>8.1376097049080816E-8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22">
+        <v>145</v>
+      </c>
+      <c r="I22">
         <v>14</v>
       </c>
-      <c r="E22">
-        <v>9.79020979020979</v>
-      </c>
-      <c r="F22">
-        <v>1.0814777619649848E-7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22">
-        <v>141</v>
-      </c>
-      <c r="I22">
-        <v>240</v>
-      </c>
       <c r="J22">
         <v>16792</v>
       </c>
       <c r="K22">
-        <v>6.9470449172576831</v>
+        <v>49.631527093596063</v>
       </c>
       <c r="L22">
-        <v>1.8394245773889484E-4</v>
+        <v>1.4638488929530347E-4</v>
       </c>
       <c r="M22">
-        <v>8.7599698719163775E-6</v>
+        <v>6.9712189805379236E-6</v>
       </c>
       <c r="N22">
-        <v>8.1471324734695517E-6</v>
+        <v>6.4132114579156547E-6</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>4.895104895104895</v>
+        <v>6.8027210884353746</v>
       </c>
       <c r="F23">
-        <v>1.8705514643866675E-7</v>
+        <v>1.1177409061932839E-7</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H23">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I23">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="J23">
         <v>16792</v>
       </c>
       <c r="K23">
-        <v>26.891786776481354</v>
+        <v>12.319882611885546</v>
       </c>
       <c r="L23">
-        <v>3.1813021977356026E-4</v>
+        <v>2.0106138476683189E-4</v>
       </c>
       <c r="M23">
-        <v>1.446276382237146E-5</v>
+        <v>9.1400722283714439E-6</v>
       </c>
       <c r="N23">
-        <v>1.3450965530271398E-5</v>
+        <v>8.4084599988631139E-6</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>4.895104895104895</v>
+        <v>5.4421768707482991</v>
       </c>
       <c r="F24">
-        <v>2.2865014700464638E-7</v>
+        <v>1.1922212650420511E-7</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H24">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I24">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>16792</v>
       </c>
       <c r="K24">
-        <v>26.051418439716315</v>
+        <v>20.140329835082458</v>
       </c>
       <c r="L24">
-        <v>3.8885831957513606E-4</v>
+        <v>2.1445761904348437E-4</v>
       </c>
       <c r="M24">
-        <v>1.6910169567604501E-5</v>
+        <v>9.3252437209158699E-6</v>
       </c>
       <c r="N24">
-        <v>1.5727153589623936E-5</v>
+        <v>8.578809537585194E-6</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>6.9930069930069934</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F25">
-        <v>2.487990872673106E-7</v>
+        <v>2.7014057521086957E-7</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H25">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I25">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>16792</v>
       </c>
       <c r="K25">
-        <v>11.235113073732103</v>
+        <v>25.332758620689656</v>
       </c>
       <c r="L25">
-        <v>4.2311776043257865E-4</v>
+        <v>4.8586488991175791E-4</v>
       </c>
       <c r="M25">
-        <v>1.763363531007064E-5</v>
+        <v>2.0249287283514762E-5</v>
       </c>
       <c r="N25">
-        <v>1.6400006502370225E-5</v>
+        <v>1.8628443832249546E-5</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <v>10</v>
       </c>
       <c r="E26">
-        <v>6.9930069930069934</v>
+        <v>6.8027210884353746</v>
       </c>
       <c r="F26">
-        <v>3.9908629168359874E-7</v>
+        <v>3.163249394323175E-7</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H26">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I26">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J26">
         <v>16792</v>
       </c>
       <c r="K26">
-        <v>10.633232016210741</v>
+        <v>10.925178919973975</v>
       </c>
       <c r="L26">
-        <v>6.7861555384740591E-4</v>
+        <v>5.6890676724419276E-4</v>
       </c>
       <c r="M26">
-        <v>2.7153831286152062E-5</v>
+        <v>2.2762742641549564E-5</v>
       </c>
       <c r="N26">
-        <v>2.5254180537738129E-5</v>
+        <v>2.0940710990419418E-5</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>4.895104895104895</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F27">
-        <v>5.6684484627711844E-7</v>
+        <v>3.5352916994323389E-7</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c r="H27">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I27">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>16792</v>
       </c>
       <c r="K27">
-        <v>22.530956488403298</v>
+        <v>72.379310344827587</v>
       </c>
       <c r="L27">
-        <v>9.6373866211418857E-4</v>
+        <v>6.3579688459047823E-4</v>
       </c>
       <c r="M27">
-        <v>3.6054001162795389E-5</v>
+        <v>2.4461499104918376E-5</v>
       </c>
       <c r="N27">
-        <v>3.3531704785151268E-5</v>
+        <v>2.2503491394463543E-5</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>5.5944055944055942</v>
+        <v>6.8027210884353746</v>
       </c>
       <c r="F28">
-        <v>5.7228573274278397E-7</v>
+        <v>5.0675079022420217E-7</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="H28">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I28">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="J28">
         <v>16792</v>
       </c>
       <c r="K28">
-        <v>16.148094722923428</v>
+        <v>10.339901477832512</v>
       </c>
       <c r="L28">
-        <v>9.7298465302386727E-4</v>
+        <v>9.1122948062682951E-4</v>
       </c>
       <c r="M28">
-        <v>3.6054001162795389E-5</v>
+        <v>3.3764617467160732E-5</v>
       </c>
       <c r="N28">
-        <v>3.3531704785151268E-5</v>
+        <v>3.1061946585964986E-5</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>6.9930069930069934</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F29">
-        <v>6.6878230538681393E-7</v>
+        <v>6.6901989726652552E-7</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H29">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I29">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="J29">
         <v>16792</v>
       </c>
       <c r="K29">
-        <v>10.007747779963049</v>
+        <v>21.909412861137</v>
       </c>
       <c r="L29">
-        <v>1.1369522613913219E-3</v>
+        <v>1.2028432012634038E-3</v>
       </c>
       <c r="M29">
-        <v>4.0628525052248944E-5</v>
+        <v>4.2984528399374264E-5</v>
       </c>
       <c r="N29">
-        <v>3.7786200254354989E-5</v>
+        <v>3.9543854642003561E-5</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>4.895104895104895</v>
+        <v>6.8027210884353746</v>
       </c>
       <c r="F30">
-        <v>1.0667310144313095E-6</v>
+        <v>8.4793596475298305E-7</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="H30">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I30">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="J30">
         <v>16792</v>
       </c>
       <c r="K30">
-        <v>20.332814391973706</v>
+        <v>9.7316719791364825</v>
       </c>
       <c r="L30">
-        <v>1.8128651945155116E-3</v>
+        <v>1.5242745590458018E-3</v>
       </c>
       <c r="M30">
-        <v>6.2569291570608874E-5</v>
+        <v>5.2601268985883331E-5</v>
       </c>
       <c r="N30">
-        <v>5.8192016028632124E-5</v>
+        <v>4.839082833331679E-5</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>9.0909090909090917</v>
+        <v>11.564625850340136</v>
       </c>
       <c r="F31">
-        <v>1.3965883840246272E-6</v>
+        <v>8.8815059212402907E-7</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="H31">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I31">
-        <v>253</v>
+        <v>430</v>
       </c>
       <c r="J31">
         <v>16792</v>
       </c>
       <c r="K31">
-        <v>6.1193619824517143</v>
+        <v>4.5784121892542107</v>
       </c>
       <c r="L31">
-        <v>2.3727789991294657E-3</v>
+        <v>1.596507847978712E-3</v>
       </c>
       <c r="M31">
-        <v>7.9186561374196366E-5</v>
+        <v>5.325943050770428E-5</v>
       </c>
       <c r="N31">
-        <v>7.3646760784232005E-5</v>
+        <v>4.8996307665508938E-5</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>3.4965034965034967</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F32">
-        <v>1.459650810023696E-6</v>
+        <v>1.257984732789848E-6</v>
       </c>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H32">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>16792</v>
       </c>
       <c r="K32">
-        <v>54.132817537072867</v>
+        <v>19.771909167367536</v>
       </c>
       <c r="L32">
-        <v>2.4797880729247046E-3</v>
+        <v>2.2605570416591725E-3</v>
       </c>
       <c r="M32">
-        <v>8.0092452511300218E-5</v>
+        <v>7.3003694654481823E-5</v>
       </c>
       <c r="N32">
-        <v>7.4489276821209264E-5</v>
+        <v>6.7160152669909633E-5</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>6.9930069930069934</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F33">
-        <v>1.8140284682712454E-6</v>
+        <v>1.6335410366257984E-6</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H33">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I33">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="J33">
         <v>16792</v>
       </c>
       <c r="K33">
-        <v>8.8874775060865883</v>
+        <v>52.639498432601883</v>
       </c>
       <c r="L33">
-        <v>3.0809094510759749E-3</v>
+        <v>2.9344288476560454E-3</v>
       </c>
       <c r="M33">
-        <v>9.6426950766543391E-5</v>
+        <v>9.1835635152806602E-5</v>
       </c>
       <c r="N33">
-        <v>8.9681032400159701E-5</v>
+        <v>8.4484700487990515E-5</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34">
         <v>13</v>
       </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
       <c r="E34">
-        <v>6.9930069930069934</v>
+        <v>8.8435374149659864</v>
       </c>
       <c r="F34">
-        <v>2.1883608543008896E-6</v>
+        <v>1.882861217116967E-6</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H34">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I34">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="J34">
         <v>16792</v>
       </c>
       <c r="K34">
-        <v>8.6928612103328682</v>
+        <v>5.9505519967289082</v>
       </c>
       <c r="L34">
-        <v>3.7154863218388234E-3</v>
+        <v>3.3815401896561958E-3</v>
       </c>
       <c r="M34">
-        <v>1.1280005494441858E-4</v>
+        <v>1.0264446453313405E-4</v>
       </c>
       <c r="N34">
-        <v>1.04908693075879E-4</v>
+        <v>9.4428342858441831E-5</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>10.48951048951049</v>
+        <v>6.8027210884353746</v>
       </c>
       <c r="F35">
-        <v>2.3157751723813606E-6</v>
+        <v>2.2940161451632461E-6</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="H35">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I35">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="J35">
         <v>16792</v>
       </c>
       <c r="K35">
-        <v>4.8808278107196843</v>
+        <v>8.642305712815233</v>
       </c>
       <c r="L35">
-        <v>3.9313899018526E-3</v>
+        <v>4.1184356654759835E-3</v>
       </c>
       <c r="M35">
-        <v>1.1585686965354984E-4</v>
+        <v>1.2138044250437294E-4</v>
       </c>
       <c r="N35">
-        <v>1.0775165655021508E-4</v>
+        <v>1.1166460941897566E-4</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E36">
-        <v>6.2937062937062942</v>
+        <v>11.564625850340136</v>
       </c>
       <c r="F36">
-        <v>2.696572373308897E-6</v>
+        <v>2.5281873340234694E-6</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>371</v>
       </c>
       <c r="H36">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I36">
-        <v>105</v>
+        <v>466</v>
       </c>
       <c r="J36">
         <v>16792</v>
       </c>
       <c r="K36">
-        <v>10.207902735562309</v>
+        <v>4.2247151102560307</v>
       </c>
       <c r="L36">
-        <v>4.5763721423986992E-3</v>
+        <v>4.5378872976509221E-3</v>
       </c>
       <c r="M36">
-        <v>1.3105341734281239E-4</v>
+        <v>1.2994882896880632E-4</v>
       </c>
       <c r="N36">
-        <v>1.2188507127356216E-4</v>
+        <v>1.1954714393739548E-4</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>11.188811188811188</v>
+        <v>6.8027210884353746</v>
       </c>
       <c r="F37">
-        <v>3.0825994358896655E-6</v>
+        <v>2.753811004619602E-6</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="H37">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I37">
-        <v>430</v>
+        <v>137</v>
       </c>
       <c r="J37">
         <v>16792</v>
       </c>
       <c r="K37">
-        <v>4.4313376216394529</v>
+        <v>8.4530581424616162</v>
       </c>
       <c r="L37">
-        <v>5.2297865216313077E-3</v>
+        <v>4.9418614417645612E-3</v>
       </c>
       <c r="M37">
-        <v>1.3974098766636654E-4</v>
+        <v>1.3761405548085178E-4</v>
       </c>
       <c r="N37">
-        <v>1.2996486918764953E-4</v>
+        <v>1.2659881146237335E-4</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>3.4965034965034967</v>
+        <v>10.204081632653061</v>
       </c>
       <c r="F38">
-        <v>3.1217857326995461E-6</v>
+        <v>3.2375689263376501E-6</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H38">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I38">
-        <v>13</v>
+        <v>366</v>
       </c>
       <c r="J38">
         <v>16792</v>
       </c>
       <c r="K38">
-        <v>45.804691762138575</v>
+        <v>4.7461842849067271</v>
       </c>
       <c r="L38">
-        <v>5.296091812194037E-3</v>
+        <v>5.8074670157157726E-3</v>
       </c>
       <c r="M38">
-        <v>1.3974098766636654E-4</v>
+        <v>1.5706857994740768E-4</v>
       </c>
       <c r="N38">
-        <v>1.2996486918764953E-4</v>
+        <v>1.4449610884544731E-4</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>3.4965034965034967</v>
+        <v>6.1224489795918364</v>
       </c>
       <c r="F39">
-        <v>3.1217857326995461E-6</v>
+        <v>3.3285910044959282E-6</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="H39">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I39">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="J39">
         <v>16792</v>
       </c>
       <c r="K39">
-        <v>45.804691762138575</v>
+        <v>9.9263054187192115</v>
       </c>
       <c r="L39">
-        <v>5.296091812194037E-3</v>
+        <v>5.9702519752872218E-3</v>
       </c>
       <c r="M39">
-        <v>1.3974098766636654E-4</v>
+        <v>1.5706857994740768E-4</v>
       </c>
       <c r="N39">
-        <v>1.2996486918764953E-4</v>
+        <v>1.4449610884544731E-4</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
+        <v>357</v>
+      </c>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>3.4013605442176873</v>
+      </c>
+      <c r="F40">
+        <v>3.4923530838778806E-6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40">
+        <v>145</v>
+      </c>
+      <c r="I40">
         <v>13</v>
       </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>2.7972027972027971</v>
-      </c>
-      <c r="F40">
-        <v>5.603521512778081E-6</v>
-      </c>
-      <c r="G40" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40">
-        <v>141</v>
-      </c>
-      <c r="I40">
-        <v>5</v>
-      </c>
       <c r="J40">
         <v>16792</v>
       </c>
       <c r="K40">
-        <v>95.273758865248226</v>
+        <v>44.541114058355433</v>
       </c>
       <c r="L40">
-        <v>9.4863349232379157E-3</v>
+        <v>6.2630589370020751E-3</v>
       </c>
       <c r="M40">
-        <v>2.443997459803978E-4</v>
+        <v>1.5706857994740768E-4</v>
       </c>
       <c r="N40">
-        <v>2.2730182136448523E-4</v>
+        <v>1.4449610884544731E-4</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41">
-        <v>3.4965034965034967</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F41">
-        <v>5.8829380707782203E-6</v>
+        <v>3.4923530838778806E-6</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="H41">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J41">
         <v>16792</v>
       </c>
       <c r="K41">
-        <v>39.697399527186761</v>
+        <v>44.541114058355433</v>
       </c>
       <c r="L41">
-        <v>9.9570045939546548E-3</v>
+        <v>6.2630589370020751E-3</v>
       </c>
       <c r="M41">
-        <v>2.5017194145984383E-4</v>
+        <v>1.5706857994740768E-4</v>
       </c>
       <c r="N41">
-        <v>2.326702006992786E-4</v>
+        <v>1.4449610884544731E-4</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>11.188811188811188</v>
+        <v>6.1224489795918364</v>
       </c>
       <c r="F42">
-        <v>8.1357172028029273E-6</v>
+        <v>5.767205158687296E-6</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="H42">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I42">
-        <v>466</v>
+        <v>113</v>
       </c>
       <c r="J42">
         <v>16792</v>
       </c>
       <c r="K42">
-        <v>4.089002526405503</v>
+        <v>9.223558132438205</v>
       </c>
       <c r="L42">
-        <v>1.3743593727965853E-2</v>
+        <v>1.0321594938241585E-2</v>
       </c>
       <c r="M42">
-        <v>3.3753304785287265E-4</v>
+        <v>2.5305370927996207E-4</v>
       </c>
       <c r="N42">
-        <v>3.1391962475205441E-4</v>
+        <v>2.3279815945432866E-4</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>7.6923076923076925</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F43">
-        <v>1.2437170369529883E-5</v>
+        <v>6.0991579489240879E-6</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="H43">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I43">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="J43">
         <v>16792</v>
       </c>
       <c r="K43">
-        <v>6.1215616093325389</v>
+        <v>92.645517241379309</v>
       </c>
       <c r="L43">
-        <v>2.0933545090772387E-2</v>
+        <v>1.0912441192511113E-2</v>
       </c>
       <c r="M43">
-        <v>5.0370539996596022E-4</v>
+        <v>2.5693748169424807E-4</v>
       </c>
       <c r="N43">
-        <v>4.6846675058562556E-4</v>
+        <v>2.3637105736741556E-4</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>3.4965034965034967</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F44">
-        <v>1.2934055933701783E-5</v>
+        <v>6.1413628198180484E-6</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>373</v>
       </c>
       <c r="H44">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I44">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J44">
         <v>16792</v>
       </c>
       <c r="K44">
-        <v>33.081166272655636</v>
+        <v>22.414238042269186</v>
       </c>
       <c r="L44">
-        <v>2.1760715234825811E-2</v>
+        <v>1.0987536819857424E-2</v>
       </c>
       <c r="M44">
-        <v>5.1164718937736584E-4</v>
+        <v>2.5693748169424807E-4</v>
       </c>
       <c r="N44">
-        <v>4.7585294156084228E-4</v>
+        <v>2.3637105736741556E-4</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>4.895104895104895</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F45">
-        <v>1.663120431884979E-5</v>
+        <v>6.5787514675210106E-6</v>
       </c>
       <c r="G45" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H45">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I45">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="J45">
         <v>16792</v>
       </c>
       <c r="K45">
-        <v>12.825313693398801</v>
+        <v>38.602298850574712</v>
       </c>
       <c r="L45">
-        <v>2.7893501139367727E-2</v>
+        <v>1.1765452171172863E-2</v>
       </c>
       <c r="M45">
-        <v>6.4294723969007936E-4</v>
+        <v>2.6898122477432492E-4</v>
       </c>
       <c r="N45">
-        <v>5.9796739164591744E-4</v>
+        <v>2.4745076542607438E-4</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>2.7972027972027971</v>
+        <v>5.4421768707482991</v>
       </c>
       <c r="F46">
-        <v>1.9373218744446499E-5</v>
+        <v>8.3221518578500771E-6</v>
       </c>
       <c r="G46" t="s">
-        <v>144</v>
+        <v>374</v>
       </c>
       <c r="H46">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I46">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="J46">
         <v>16792</v>
       </c>
       <c r="K46">
-        <v>68.052684903748741</v>
+        <v>10.89947261663286</v>
       </c>
       <c r="L46">
-        <v>3.2417091586925073E-2</v>
+        <v>1.4860096110509757E-2</v>
       </c>
       <c r="M46">
-        <v>7.3230766854007765E-4</v>
+        <v>3.3270113760605082E-4</v>
       </c>
       <c r="N46">
-        <v>6.8107626786031918E-4</v>
+        <v>3.0607025166093062E-4</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>3.4965034965034967</v>
+        <v>5.4421768707482991</v>
       </c>
       <c r="F47">
-        <v>2.4810468212027473E-5</v>
+        <v>8.9951993737016957E-6</v>
       </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="H47">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I47">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J47">
         <v>16792</v>
       </c>
       <c r="K47">
-        <v>28.355285376561973</v>
+        <v>10.772734562951081</v>
       </c>
       <c r="L47">
-        <v>4.1324974836759232E-2</v>
+        <v>1.6052204268366843E-2</v>
       </c>
       <c r="M47">
-        <v>9.1744796584040727E-4</v>
+        <v>3.5179051463672504E-4</v>
       </c>
       <c r="N47">
-        <v>8.5326436329190129E-4</v>
+        <v>3.2363162964078927E-4</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>2.7972027972027971</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F48">
-        <v>3.0807721163004752E-5</v>
+        <v>1.4455578840115486E-5</v>
       </c>
       <c r="G48" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H48">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I48">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J48">
         <v>16792</v>
       </c>
       <c r="K48">
-        <v>59.546099290780141</v>
+        <v>32.168582375478927</v>
       </c>
       <c r="L48">
-        <v>5.1055287666183502E-2</v>
+        <v>2.5670536476335326E-2</v>
       </c>
       <c r="M48">
-        <v>1.0917486187139809E-3</v>
+        <v>5.5331034751846301E-4</v>
       </c>
       <c r="N48">
-        <v>1.0153711433306984E-3</v>
+        <v>5.0902091447640693E-4</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>2.7972027972027971</v>
+        <v>7.4829931972789119</v>
       </c>
       <c r="F49">
-        <v>3.0807721163004752E-5</v>
+        <v>1.5920279131610007E-5</v>
       </c>
       <c r="G49" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="H49">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="J49">
         <v>16792</v>
       </c>
       <c r="K49">
-        <v>59.546099290780141</v>
+        <v>5.9526909442475029</v>
       </c>
       <c r="L49">
-        <v>5.1055287666183502E-2</v>
+        <v>2.8234549920448826E-2</v>
       </c>
       <c r="M49">
-        <v>1.0917486187139809E-3</v>
+        <v>5.9667879495346667E-4</v>
       </c>
       <c r="N49">
-        <v>1.0153711433306984E-3</v>
+        <v>5.4891795755863666E-4</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>6.2937062937062942</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F50">
-        <v>4.0823326961072825E-5</v>
+        <v>1.9517576932279236E-5</v>
       </c>
       <c r="G50" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="H50">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I50">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="J50">
         <v>16792</v>
       </c>
       <c r="K50">
-        <v>7.0515117581187008</v>
+        <v>12.471511936339523</v>
       </c>
       <c r="L50">
-        <v>6.7085662690685943E-2</v>
+        <v>3.4503173056338876E-2</v>
       </c>
       <c r="M50">
-        <v>1.4171526359343853E-3</v>
+        <v>7.16573895942252E-4</v>
       </c>
       <c r="N50">
-        <v>1.318010270457494E-3</v>
+        <v>6.5921611883514562E-4</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>4.1958041958041958</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F51">
-        <v>4.340629942988037E-5</v>
+        <v>2.107923044058096E-5</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="H51">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I51">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <v>16792</v>
       </c>
       <c r="K51">
-        <v>15.203259393390674</v>
+        <v>66.175369458128074</v>
       </c>
       <c r="L51">
-        <v>7.1175729406095956E-2</v>
+        <v>3.7211902226992333E-2</v>
       </c>
       <c r="M51">
-        <v>1.4766823066045304E-3</v>
+        <v>7.5843071125210294E-4</v>
       </c>
       <c r="N51">
-        <v>1.3733753139614148E-3</v>
+        <v>6.9772252758322983E-4</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>5.5944055944055942</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F52">
-        <v>4.4580937940411662E-5</v>
+        <v>2.7713262329585877E-5</v>
       </c>
       <c r="G52" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="H52">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I52">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="J52">
         <v>16792</v>
       </c>
       <c r="K52">
-        <v>8.431306094269754</v>
+        <v>27.573070607553365</v>
       </c>
       <c r="L52">
-        <v>7.3029804800692322E-2</v>
+        <v>4.8634397053043288E-2</v>
       </c>
       <c r="M52">
-        <v>1.486905400718436E-3</v>
+        <v>9.7757174374362723E-4</v>
       </c>
       <c r="N52">
-        <v>1.3828832121908089E-3</v>
+        <v>8.9932253246009081E-4</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>4.895104895104895</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F53">
-        <v>5.4620950887734921E-5</v>
+        <v>3.3514651202722427E-5</v>
       </c>
       <c r="G53" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="H53">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I53">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="J53">
         <v>16792</v>
       </c>
       <c r="K53">
-        <v>10.420567375886526</v>
+        <v>57.903448275862068</v>
       </c>
       <c r="L53">
-        <v>8.8727017361778571E-2</v>
+        <v>5.851218010518211E-2</v>
       </c>
       <c r="M53">
-        <v>1.7867353357699442E-3</v>
+        <v>1.15947802910957E-3</v>
       </c>
       <c r="N53">
-        <v>1.6617373904691663E-3</v>
+        <v>1.0666682257789541E-3</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E54">
-        <v>4.895104895104895</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="F54">
-        <v>5.8589964999200466E-5</v>
+        <v>3.699320750208667E-5</v>
       </c>
       <c r="G54" t="s">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="H54">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I54">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="J54">
         <v>16792</v>
       </c>
       <c r="K54">
-        <v>10.291918395937309</v>
+        <v>4.0941832114245909</v>
       </c>
       <c r="L54">
-        <v>9.4858912968412867E-2</v>
+        <v>6.4385747913356939E-2</v>
       </c>
       <c r="M54">
-        <v>1.8804062351630184E-3</v>
+        <v>1.2522485712526527E-3</v>
       </c>
       <c r="N54">
-        <v>1.7488551816742478E-3</v>
+        <v>1.1520129991234797E-3</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>4.895104895104895</v>
+        <v>5.4421768707482991</v>
       </c>
       <c r="F55">
-        <v>6.2786178416911187E-5</v>
+        <v>3.7588339548439821E-5</v>
       </c>
       <c r="G55" t="s">
-        <v>171</v>
+        <v>377</v>
       </c>
       <c r="H55">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I55">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="J55">
         <v>16792</v>
       </c>
       <c r="K55">
-        <v>10.166407195986853</v>
+        <v>8.6584595552690953</v>
       </c>
       <c r="L55">
-        <v>0.10129697862784981</v>
+        <v>6.538695761482971E-2</v>
       </c>
       <c r="M55">
-        <v>1.9460805257037199E-3</v>
+        <v>1.2522485712526527E-3</v>
       </c>
       <c r="N55">
-        <v>1.8099349745228012E-3</v>
+        <v>1.1520129991234797E-3</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>2.7972027972027971</v>
+        <v>10.204081632653061</v>
       </c>
       <c r="F56">
-        <v>6.5212574935398022E-5</v>
+        <v>3.8307914431713826E-5</v>
       </c>
       <c r="G56" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="H56">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I56">
-        <v>10</v>
+        <v>456</v>
       </c>
       <c r="J56">
         <v>16792</v>
       </c>
       <c r="K56">
-        <v>47.636879432624113</v>
+        <v>3.809437386569873</v>
       </c>
       <c r="L56">
-        <v>0.10499878845503419</v>
+        <v>6.6596091512671651E-2</v>
       </c>
       <c r="M56">
-        <v>1.9460805257037199E-3</v>
+        <v>1.2530170556846031E-3</v>
       </c>
       <c r="N56">
-        <v>1.8099349745228012E-3</v>
+        <v>1.1527199706270251E-3</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>2.7972027972027971</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F57">
-        <v>6.5212574935398022E-5</v>
+        <v>4.9657540035687415E-5</v>
       </c>
       <c r="G57" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="H57">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="J57">
         <v>16792</v>
       </c>
       <c r="K57">
-        <v>47.636879432624113</v>
+        <v>14.783859134262656</v>
       </c>
       <c r="L57">
-        <v>0.10499878845503419</v>
+        <v>8.5461884215340289E-2</v>
       </c>
       <c r="M57">
-        <v>1.9460805257037199E-3</v>
+        <v>1.5747497749136392E-3</v>
       </c>
       <c r="N57">
-        <v>1.8099349745228012E-3</v>
+        <v>1.448699765137339E-3</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E58">
-        <v>2.7972027972027971</v>
+        <v>6.1224489795918364</v>
       </c>
       <c r="F58">
-        <v>6.5212574935398022E-5</v>
+        <v>4.9894795536452158E-5</v>
       </c>
       <c r="G58" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="H58">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="J58">
         <v>16792</v>
       </c>
       <c r="K58">
-        <v>47.636879432624113</v>
+        <v>6.8569872958257712</v>
       </c>
       <c r="L58">
-        <v>0.10499878845503419</v>
+        <v>8.5852165923817947E-2</v>
       </c>
       <c r="M58">
-        <v>1.9460805257037199E-3</v>
+        <v>1.5747497749136392E-3</v>
       </c>
       <c r="N58">
-        <v>1.8099349745228012E-3</v>
+        <v>1.448699765137339E-3</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D59">
         <v>7</v>
       </c>
       <c r="E59">
-        <v>4.895104895104895</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F59">
-        <v>7.6833663708499077E-5</v>
+        <v>5.5395956303640274E-5</v>
       </c>
       <c r="G59" t="s">
-        <v>183</v>
+        <v>379</v>
       </c>
       <c r="H59">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I59">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J59">
         <v>16792</v>
       </c>
       <c r="K59">
-        <v>9.8075928243637875</v>
+        <v>10.392926613616268</v>
       </c>
       <c r="L59">
-        <v>0.12251821621513148</v>
+        <v>9.4854962596604642E-2</v>
       </c>
       <c r="M59">
-        <v>2.2533458960027055E-3</v>
+        <v>1.7182297481077389E-3</v>
       </c>
       <c r="N59">
-        <v>2.0957044135663022E-3</v>
+        <v>1.5806949600435285E-3</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="D60">
         <v>7</v>
       </c>
       <c r="E60">
-        <v>4.895104895104895</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F60">
-        <v>8.2035506344423106E-5</v>
+        <v>6.3906469882831667E-5</v>
       </c>
       <c r="G60" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="H60">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I60">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J60">
         <v>16792</v>
       </c>
       <c r="K60">
-        <v>9.6935510473363014</v>
+        <v>10.133103448275861</v>
       </c>
       <c r="L60">
-        <v>0.13024883050765179</v>
+        <v>0.10860837430468062</v>
       </c>
       <c r="M60">
-        <v>2.3651253608790459E-3</v>
+        <v>1.9486057511731215E-3</v>
       </c>
       <c r="N60">
-        <v>2.1996639158792775E-3</v>
+        <v>1.7926306382387526E-3</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E61">
-        <v>4.1958041958041958</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F61">
-        <v>8.5402757645649296E-5</v>
+        <v>6.8536392499574206E-5</v>
       </c>
       <c r="G61" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="H61">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I61">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="J61">
         <v>16792</v>
       </c>
       <c r="K61">
-        <v>13.232466509062254</v>
+        <v>10.008003405704555</v>
       </c>
       <c r="L61">
-        <v>0.13521667464003728</v>
+        <v>0.1160026335382548</v>
       </c>
       <c r="M61">
-        <v>2.4211681792541575E-3</v>
+        <v>2.0250772649226131E-3</v>
       </c>
       <c r="N61">
-        <v>2.2517860432569531E-3</v>
+        <v>1.8629810302651052E-3</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>4.1958041958041958</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F62">
-        <v>1.1083037767772772E-4</v>
+        <v>7.0917102662659595E-5</v>
       </c>
       <c r="G62" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="H62">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I62">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="J62">
         <v>16792</v>
       </c>
       <c r="K62">
-        <v>12.536020903322136</v>
+        <v>46.322758620689655</v>
       </c>
       <c r="L62">
-        <v>0.17182676064715852</v>
+        <v>0.1197808704900778</v>
       </c>
       <c r="M62">
-        <v>3.0584029230957062E-3</v>
+        <v>2.0250772649226131E-3</v>
       </c>
       <c r="N62">
-        <v>2.8444405786816032E-3</v>
+        <v>1.8629810302651052E-3</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>4.895104895104895</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F63">
-        <v>1.1241305201281427E-4</v>
+        <v>7.0917102662659595E-5</v>
       </c>
       <c r="G63" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="H63">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I63">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="J63">
         <v>16792</v>
       </c>
       <c r="K63">
-        <v>9.1609383524277153</v>
+        <v>46.322758620689655</v>
       </c>
       <c r="L63">
-        <v>0.174053559677249</v>
+        <v>0.1197808704900778</v>
       </c>
       <c r="M63">
-        <v>3.0584029230957062E-3</v>
+        <v>2.0250772649226131E-3</v>
       </c>
       <c r="N63">
-        <v>2.8444405786816032E-3</v>
+        <v>1.8629810302651052E-3</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="D64">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>9.79020979020979</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F64">
-        <v>1.1539115687359478E-4</v>
+        <v>7.0917102662659595E-5</v>
       </c>
       <c r="G64" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="H64">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I64">
-        <v>456</v>
+        <v>10</v>
       </c>
       <c r="J64">
         <v>16792</v>
       </c>
       <c r="K64">
-        <v>3.6563394301356231</v>
+        <v>46.322758620689655</v>
       </c>
       <c r="L64">
-        <v>0.1782274975343926</v>
+        <v>0.1197808704900778</v>
       </c>
       <c r="M64">
-        <v>3.0584029230957062E-3</v>
+        <v>2.0250772649226131E-3</v>
       </c>
       <c r="N64">
-        <v>2.8444405786816032E-3</v>
+        <v>1.8629810302651052E-3</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>2.7972027972027971</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F65">
-        <v>1.1810145903295046E-4</v>
+        <v>7.3430165829525086E-5</v>
       </c>
       <c r="G65" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="H65">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I65">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="J65">
         <v>16792</v>
       </c>
       <c r="K65">
-        <v>39.697399527186761</v>
+        <v>9.8859545836837679</v>
       </c>
       <c r="L65">
-        <v>0.18200777350301633</v>
+        <v>0.12375164561848573</v>
       </c>
       <c r="M65">
-        <v>3.0584029230957062E-3</v>
+        <v>2.0640760676143067E-3</v>
       </c>
       <c r="N65">
-        <v>2.8444405786816032E-3</v>
+        <v>1.8988581944978753E-3</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="D66">
         <v>8</v>
       </c>
       <c r="E66">
-        <v>5.5944055944055942</v>
+        <v>5.4421768707482991</v>
       </c>
       <c r="F66">
-        <v>1.1931586261945931E-4</v>
+        <v>8.6784907943026753E-5</v>
       </c>
       <c r="G66" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="H66">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I66">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J66">
         <v>16792</v>
       </c>
       <c r="K66">
-        <v>7.217709004943047</v>
+        <v>7.5938948558507624</v>
       </c>
       <c r="L66">
-        <v>0.18369595661614746</v>
+        <v>0.14455444128160277</v>
       </c>
       <c r="M66">
-        <v>3.0584029230957062E-3</v>
+        <v>2.4019392213770019E-3</v>
       </c>
       <c r="N66">
-        <v>2.8444405786816032E-3</v>
+        <v>2.2096772714724502E-3</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>9.0909090909090917</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F67">
-        <v>1.208907510457935E-4</v>
+        <v>9.7567792807614476E-5</v>
       </c>
       <c r="G67" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="H67">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I67">
-        <v>396</v>
+        <v>54</v>
       </c>
       <c r="J67">
         <v>16792</v>
       </c>
       <c r="K67">
-        <v>3.9095923776774839</v>
+        <v>12.867432950191571</v>
       </c>
       <c r="L67">
-        <v>0.18588007695733755</v>
+        <v>0.16099030955269977</v>
       </c>
       <c r="M67">
-        <v>3.0584029230957062E-3</v>
+        <v>2.6594615039530066E-3</v>
       </c>
       <c r="N67">
-        <v>2.8444405786816032E-3</v>
+        <v>2.4465863196454843E-3</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E68">
-        <v>3.4965034965034967</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F68">
-        <v>1.222641968080588E-4</v>
+        <v>1.2654287007665395E-4</v>
       </c>
       <c r="G68" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="H68">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I68">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J68">
         <v>16792</v>
       </c>
       <c r="K68">
-        <v>19.208419126058111</v>
+        <v>12.190199637023593</v>
       </c>
       <c r="L68">
-        <v>0.18778006008682302</v>
+        <v>0.20360901636976103</v>
       </c>
       <c r="M68">
-        <v>3.0584029230957062E-3</v>
+        <v>3.3965804511144858E-3</v>
       </c>
       <c r="N68">
-        <v>2.8444405786816032E-3</v>
+        <v>3.1247029719813639E-3</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>3.4965034965034967</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F69">
-        <v>1.222641968080588E-4</v>
+        <v>1.2838658736841858E-4</v>
       </c>
       <c r="G69" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="H69">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I69">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J69">
         <v>16792</v>
       </c>
       <c r="K69">
-        <v>19.208419126058111</v>
+        <v>38.602298850574712</v>
       </c>
       <c r="L69">
-        <v>0.18778006008682302</v>
+        <v>0.20624648346734853</v>
       </c>
       <c r="M69">
-        <v>3.0584029230957062E-3</v>
+        <v>3.3965804511144858E-3</v>
       </c>
       <c r="N69">
-        <v>2.8444405786816032E-3</v>
+        <v>3.1247029719813639E-3</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="D70">
         <v>7</v>
       </c>
       <c r="E70">
-        <v>4.895104895104895</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F70">
-        <v>1.2681125943392839E-4</v>
+        <v>1.312322256240597E-4</v>
       </c>
       <c r="G70" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="H70">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I70">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J70">
         <v>16792</v>
       </c>
       <c r="K70">
-        <v>8.9639289254937857</v>
+        <v>8.908222811671088</v>
       </c>
       <c r="L70">
-        <v>0.19403876279132803</v>
+        <v>0.21030008992383309</v>
       </c>
       <c r="M70">
-        <v>3.126173221697278E-3</v>
+        <v>3.4215474477925127E-3</v>
       </c>
       <c r="N70">
-        <v>2.9074697452822424E-3</v>
+        <v>3.1476714986640405E-3</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>2.7972027972027971</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F71">
-        <v>1.5259536102540851E-4</v>
+        <v>1.3631008774370767E-4</v>
       </c>
       <c r="G71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H71">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I71">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J71">
         <v>16792</v>
       </c>
       <c r="K71">
-        <v>36.643753409710854</v>
+        <v>18.678531701890989</v>
       </c>
       <c r="L71">
-        <v>0.22862798750141755</v>
+        <v>0.21748216341962567</v>
       </c>
       <c r="M71">
-        <v>3.7080672729174272E-3</v>
+        <v>3.503169255013287E-3</v>
       </c>
       <c r="N71">
-        <v>3.4486551591742325E-3</v>
+        <v>3.2227599316548027E-3</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>4.1958041958041958</v>
+        <v>5.4421768707482991</v>
       </c>
       <c r="F72">
-        <v>1.6566614924237654E-4</v>
+        <v>1.4221584757614225E-4</v>
       </c>
       <c r="G72" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="H72">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I72">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="J72">
         <v>16792</v>
       </c>
       <c r="K72">
-        <v>11.525051475634866</v>
+        <v>7.0185997910135836</v>
       </c>
       <c r="L72">
-        <v>0.24559163892448144</v>
+        <v>0.22575313112691342</v>
       </c>
       <c r="M72">
-        <v>3.968987603680035E-3</v>
+        <v>3.6034691519645059E-3</v>
       </c>
       <c r="N72">
-        <v>3.6913218042456297E-3</v>
+        <v>3.3150313765988085E-3</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E73">
-        <v>3.4965034965034967</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F73">
-        <v>1.9826679538973907E-4</v>
+        <v>1.479813689877431E-4</v>
       </c>
       <c r="G73" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="H73">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I73">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="J73">
         <v>16792</v>
       </c>
       <c r="K73">
-        <v>17.013171225937185</v>
+        <v>8.7166481275491297</v>
       </c>
       <c r="L73">
-        <v>0.28629477804583081</v>
+        <v>0.2337434031019815</v>
       </c>
       <c r="M73">
-        <v>4.6702691969781242E-3</v>
+        <v>3.6974789279020813E-3</v>
       </c>
       <c r="N73">
-        <v>4.3435425453376801E-3</v>
+        <v>3.4015161899265947E-3</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>2.0979020979020979</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F74">
-        <v>2.0592015859691908E-4</v>
+        <v>1.6169263523037398E-4</v>
       </c>
       <c r="G74" t="s">
-        <v>228</v>
+        <v>381</v>
       </c>
       <c r="H74">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="J74">
         <v>16792</v>
       </c>
       <c r="K74">
-        <v>119.09219858156028</v>
+        <v>11.580689655172414</v>
       </c>
       <c r="L74">
-        <v>0.29552769400445211</v>
+        <v>0.25241597372319813</v>
       </c>
       <c r="M74">
-        <v>4.6702691969781242E-3</v>
+        <v>3.9847267230060657E-3</v>
       </c>
       <c r="N74">
-        <v>4.3435425453376801E-3</v>
+        <v>3.6657713877571085E-3</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>2.7210884353741496</v>
+      </c>
+      <c r="F75">
+        <v>1.6585485765252818E-4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>197</v>
+      </c>
+      <c r="H75">
+        <v>145</v>
+      </c>
+      <c r="I75">
         <v>13</v>
       </c>
-      <c r="B75" t="s">
-        <v>229</v>
-      </c>
-      <c r="C75" t="s">
-        <v>230</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75">
-        <v>2.0979020979020979</v>
-      </c>
-      <c r="F75">
-        <v>2.0592015859691908E-4</v>
-      </c>
-      <c r="G75" t="s">
-        <v>231</v>
-      </c>
-      <c r="H75">
-        <v>141</v>
-      </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
       <c r="J75">
         <v>16792</v>
       </c>
       <c r="K75">
-        <v>119.09219858156028</v>
+        <v>35.632891246684345</v>
       </c>
       <c r="L75">
-        <v>0.29552769400445211</v>
+        <v>0.25799376653187567</v>
       </c>
       <c r="M75">
-        <v>4.6702691969781242E-3</v>
+        <v>4.0320660664445703E-3</v>
       </c>
       <c r="N75">
-        <v>4.3435425453376801E-3</v>
+        <v>3.7093214785801909E-3</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E76">
-        <v>2.0979020979020979</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F76">
-        <v>2.0592015859691908E-4</v>
+        <v>1.8896750393881443E-4</v>
       </c>
       <c r="G76" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="H76">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="J76">
         <v>16792</v>
       </c>
       <c r="K76">
-        <v>119.09219858156028</v>
+        <v>11.207119021134593</v>
       </c>
       <c r="L76">
-        <v>0.29552769400445211</v>
+        <v>0.28821876117664791</v>
       </c>
       <c r="M76">
-        <v>4.6702691969781242E-3</v>
+        <v>4.5327005278123621E-3</v>
       </c>
       <c r="N76">
-        <v>4.3435425453376801E-3</v>
+        <v>4.1698829202498388E-3</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>4.895104895104895</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F77">
-        <v>2.733592828368641E-4</v>
+        <v>2.1786386071587379E-4</v>
       </c>
       <c r="G77" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="H77">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I77">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="J77">
         <v>16792</v>
       </c>
       <c r="K77">
-        <v>7.7910784118777761</v>
+        <v>115.80689655172414</v>
       </c>
       <c r="L77">
-        <v>0.37189485962972646</v>
+        <v>0.3242822272813527</v>
       </c>
       <c r="M77">
-        <v>6.118212369809287E-3</v>
+        <v>5.0248344285622687E-3</v>
       </c>
       <c r="N77">
-        <v>5.6901892822094598E-3</v>
+        <v>4.6226242241637324E-3</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>2.7972027972027971</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F78">
-        <v>3.5405029061787142E-4</v>
+        <v>2.1786386071587379E-4</v>
       </c>
       <c r="G78" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="H78">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I78">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J78">
         <v>16792</v>
       </c>
       <c r="K78">
-        <v>28.021693783896534</v>
+        <v>115.80689655172414</v>
       </c>
       <c r="L78">
-        <v>0.45247446606480268</v>
+        <v>0.3242822272813527</v>
       </c>
       <c r="M78">
-        <v>7.8212927836493404E-3</v>
+        <v>5.0248344285622687E-3</v>
       </c>
       <c r="N78">
-        <v>7.2741241526944498E-3</v>
+        <v>4.6226242241637324E-3</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79">
-        <v>2.0979020979020979</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F79">
-        <v>4.0958511156188984E-4</v>
+        <v>2.1786386071587379E-4</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H79">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79">
         <v>16792</v>
       </c>
       <c r="K79">
-        <v>89.319148936170208</v>
+        <v>115.80689655172414</v>
       </c>
       <c r="L79">
-        <v>0.50184648857618286</v>
+        <v>0.3242822272813527</v>
       </c>
       <c r="M79">
-        <v>8.8190414527439826E-3</v>
+        <v>5.0248344285622687E-3</v>
       </c>
       <c r="N79">
-        <v>8.2020714745684783E-3</v>
+        <v>4.6226242241637324E-3</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>2.0979020979020979</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F80">
-        <v>4.0958511156188984E-4</v>
+        <v>2.2087692202092373E-4</v>
       </c>
       <c r="G80" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="H80">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="J80">
         <v>16792</v>
       </c>
       <c r="K80">
-        <v>89.319148936170208</v>
+        <v>16.543842364532022</v>
       </c>
       <c r="L80">
-        <v>0.50184648857618286</v>
+        <v>0.32793584397350306</v>
       </c>
       <c r="M80">
-        <v>8.8190414527439826E-3</v>
+        <v>5.029842819185339E-3</v>
       </c>
       <c r="N80">
-        <v>8.2020714745684783E-3</v>
+        <v>4.6272317208180857E-3</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="C81" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E81">
-        <v>2.7972027972027971</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F81">
-        <v>4.2227353754613003E-4</v>
+        <v>3.6916873798689052E-4</v>
       </c>
       <c r="G81" t="s">
-        <v>249</v>
+        <v>382</v>
       </c>
       <c r="H81">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I81">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J81">
         <v>16792</v>
       </c>
       <c r="K81">
-        <v>26.464933018124508</v>
+        <v>7.3695297805642639</v>
       </c>
       <c r="L81">
-        <v>0.51248732404832098</v>
+        <v>0.48534431703165271</v>
       </c>
       <c r="M81">
-        <v>8.8677442884687301E-3</v>
+        <v>8.3016819954802017E-3</v>
       </c>
       <c r="N81">
-        <v>8.247367116024416E-3</v>
+        <v>7.637178267103798E-3</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="D82">
         <v>4</v>
       </c>
       <c r="E82">
-        <v>2.7972027972027971</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F82">
-        <v>4.2227353754613003E-4</v>
+        <v>3.8454072738371316E-4</v>
       </c>
       <c r="G82" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="H82">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J82">
         <v>16792</v>
       </c>
       <c r="K82">
-        <v>26.464933018124508</v>
+        <v>27.248681541582148</v>
       </c>
       <c r="L82">
-        <v>0.51248732404832098</v>
+        <v>0.49938694076026602</v>
       </c>
       <c r="M82">
-        <v>8.8677442884687301E-3</v>
+        <v>8.5406020810283954E-3</v>
       </c>
       <c r="N82">
-        <v>8.247367116024416E-3</v>
+        <v>7.856974121235127E-3</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E83">
-        <v>4.1958041958041958</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F83">
-        <v>4.8585612881747432E-4</v>
+        <v>4.332725998072424E-4</v>
       </c>
       <c r="G83" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="H83">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I83">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="J83">
         <v>16792</v>
       </c>
       <c r="K83">
-        <v>9.1609383524277135</v>
+        <v>86.855172413793113</v>
       </c>
       <c r="L83">
-        <v>0.56248404529417573</v>
+        <v>0.54142265705658654</v>
       </c>
       <c r="M83">
-        <v>9.9571237966087217E-3</v>
+        <v>9.3194634382636633E-3</v>
       </c>
       <c r="N83">
-        <v>9.2605348890270403E-3</v>
+        <v>8.5734919345894171E-3</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B84" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>4.1958041958041958</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F84">
-        <v>4.8585612881747432E-4</v>
+        <v>4.332725998072424E-4</v>
       </c>
       <c r="G84" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="H84">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I84">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="J84">
         <v>16792</v>
       </c>
       <c r="K84">
-        <v>9.1609383524277135</v>
+        <v>86.855172413793113</v>
       </c>
       <c r="L84">
-        <v>0.56248404529417573</v>
+        <v>0.54142265705658654</v>
       </c>
       <c r="M84">
-        <v>9.9571237966087217E-3</v>
+        <v>9.3194634382636633E-3</v>
       </c>
       <c r="N84">
-        <v>9.2605348890270403E-3</v>
+        <v>8.5734919345894171E-3</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E85">
-        <v>3.4965034965034967</v>
+        <v>6.8027210884353746</v>
       </c>
       <c r="F85">
-        <v>5.2895160736316762E-4</v>
+        <v>4.3515004380997646E-4</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>383</v>
       </c>
       <c r="H85">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I85">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="J85">
         <v>16792</v>
       </c>
       <c r="K85">
-        <v>13.232466509062256</v>
+        <v>4.4201105554093187</v>
       </c>
       <c r="L85">
-        <v>0.59342413160822194</v>
+        <v>0.54296956986154266</v>
       </c>
       <c r="M85">
-        <v>1.0711270049104145E-2</v>
+        <v>9.3194634382636633E-3</v>
       </c>
       <c r="N85">
-        <v>9.9619219386729903E-3</v>
+        <v>8.5734919345894171E-3</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>4.895104895104895</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F86">
-        <v>5.5220535627309246E-4</v>
+        <v>4.5855775708940241E-4</v>
       </c>
       <c r="G86" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="H86">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I86">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="J86">
         <v>16792</v>
       </c>
       <c r="K86">
-        <v>6.8331589350075577</v>
+        <v>25.734865900383141</v>
       </c>
       <c r="L86">
-        <v>0.60920054373063759</v>
+        <v>0.56182399236281966</v>
       </c>
       <c r="M86">
-        <v>1.1050603659065062E-2</v>
+        <v>9.592388430277151E-3</v>
       </c>
       <c r="N86">
-        <v>1.0277516160282734E-2</v>
+        <v>8.8245707904995464E-3</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
       <c r="E87">
-        <v>2.7972027972027971</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F87">
-        <v>5.8278300284325397E-4</v>
+        <v>4.5855775708940241E-4</v>
       </c>
       <c r="G87" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="H87">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I87">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J87">
         <v>16792</v>
       </c>
       <c r="K87">
-        <v>23.818439716312056</v>
+        <v>25.734865900383141</v>
       </c>
       <c r="L87">
-        <v>0.629018417534154</v>
+        <v>0.56182399236281966</v>
       </c>
       <c r="M87">
-        <v>1.1394412503866381E-2</v>
+        <v>9.592388430277151E-3</v>
       </c>
       <c r="N87">
-        <v>1.059727253446009E-2</v>
+        <v>8.8245707904995464E-3</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B88" t="s">
-        <v>268</v>
+        <v>384</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>385</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>2.7972027972027971</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F88">
-        <v>5.8278300284325397E-4</v>
+        <v>4.9366947179957745E-4</v>
       </c>
       <c r="G88" t="s">
-        <v>270</v>
+        <v>386</v>
       </c>
       <c r="H88">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I88">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J88">
         <v>16792</v>
       </c>
       <c r="K88">
-        <v>23.818439716312056</v>
+        <v>13.465918203688853</v>
       </c>
       <c r="L88">
-        <v>0.629018417534154</v>
+        <v>0.58865815423857182</v>
       </c>
       <c r="M88">
-        <v>1.1394412503866381E-2</v>
+        <v>1.020817677893609E-2</v>
       </c>
       <c r="N88">
-        <v>1.059727253446009E-2</v>
+        <v>9.3910686876816172E-3</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E89">
-        <v>3.4965034965034967</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F89">
-        <v>6.251162566165983E-4</v>
+        <v>5.5246555626322551E-4</v>
       </c>
       <c r="G89" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="H89">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I89">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="J89">
         <v>16792</v>
       </c>
       <c r="K89">
-        <v>12.669382827825563</v>
+        <v>8.908222811671088</v>
       </c>
       <c r="L89">
-        <v>0.65480825759313888</v>
+        <v>0.62996592413030617</v>
       </c>
       <c r="M89">
-        <v>1.2083213096645836E-2</v>
+        <v>1.1294153814972075E-2</v>
       </c>
       <c r="N89">
-        <v>1.1237885431448392E-2</v>
+        <v>1.0390119268359525E-2</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="C90" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>2.0979020979020979</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F90">
-        <v>6.7890617156408277E-4</v>
+        <v>5.8709333228170921E-4</v>
       </c>
       <c r="G90" t="s">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="H90">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="J90">
         <v>16792</v>
       </c>
       <c r="K90">
-        <v>71.455319148936169</v>
+        <v>6.7554022988505746</v>
       </c>
       <c r="L90">
-        <v>0.68500911665996167</v>
+        <v>0.65232636321077797</v>
       </c>
       <c r="M90">
-        <v>1.2690323053082471E-2</v>
+        <v>1.1756750175754529E-2</v>
       </c>
       <c r="N90">
-        <v>1.1802522674883284E-2</v>
+        <v>1.0815687349012644E-2</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>2.0979020979020979</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F91">
-        <v>6.7890617156408277E-4</v>
+        <v>5.8816426671367856E-4</v>
       </c>
       <c r="G91" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H91">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>16792</v>
       </c>
       <c r="K91">
-        <v>71.455319148936169</v>
+        <v>12.867432950191571</v>
       </c>
       <c r="L91">
-        <v>0.68500911665996167</v>
+        <v>0.65299594332595068</v>
       </c>
       <c r="M91">
-        <v>1.2690323053082471E-2</v>
+        <v>1.1756750175754529E-2</v>
       </c>
       <c r="N91">
-        <v>1.1802522674883284E-2</v>
+        <v>1.0815687349012644E-2</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92">
-        <v>2.0979020979020979</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F92">
-        <v>6.7890617156408277E-4</v>
+        <v>6.3263443296296764E-4</v>
       </c>
       <c r="G92" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="H92">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J92">
         <v>16792</v>
       </c>
       <c r="K92">
-        <v>71.455319148936169</v>
+        <v>23.161379310344827</v>
       </c>
       <c r="L92">
-        <v>0.68500911665996167</v>
+        <v>0.6796911205265137</v>
       </c>
       <c r="M92">
-        <v>1.2690323053082471E-2</v>
+        <v>1.2370753748917161E-2</v>
       </c>
       <c r="N92">
-        <v>1.1802522674883284E-2</v>
+        <v>1.138054333210556E-2</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C93" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="D93">
         <v>4</v>
       </c>
       <c r="E93">
-        <v>2.7972027972027971</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F93">
-        <v>7.7772320772982815E-4</v>
+        <v>6.3263443296296764E-4</v>
       </c>
       <c r="G93" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="H93">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I93">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J93">
         <v>16792</v>
       </c>
       <c r="K93">
-        <v>21.653127014829142</v>
+        <v>23.161379310344827</v>
       </c>
       <c r="L93">
-        <v>0.7337772383974599</v>
+        <v>0.6796911205265137</v>
       </c>
       <c r="M93">
-        <v>1.4379425829874323E-2</v>
+        <v>1.2370753748917161E-2</v>
       </c>
       <c r="N93">
-        <v>1.3373457767702044E-2</v>
+        <v>1.138054333210556E-2</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>2.7972027972027971</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F94">
-        <v>8.8894636359613144E-4</v>
+        <v>6.9483312042950031E-4</v>
       </c>
       <c r="G94" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="H94">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I94">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>16792</v>
       </c>
       <c r="K94">
-        <v>20.71168670983657</v>
+        <v>12.319882611885546</v>
       </c>
       <c r="L94">
-        <v>0.77970115101448478</v>
+        <v>0.71362102482275103</v>
       </c>
       <c r="M94">
-        <v>1.6086146430606591E-2</v>
+        <v>1.3440911652179258E-2</v>
       </c>
       <c r="N94">
-        <v>1.4960778161798721E-2</v>
+        <v>1.2365041014094871E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>2.7972027972027971</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F95">
-        <v>8.8894636359613144E-4</v>
+        <v>7.1805489439893402E-4</v>
       </c>
       <c r="G95" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="H95">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I95">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J95">
         <v>16792</v>
       </c>
       <c r="K95">
-        <v>20.71168670983657</v>
+        <v>69.484137931034482</v>
       </c>
       <c r="L95">
-        <v>0.77970115101448478</v>
+        <v>0.72534644125775571</v>
       </c>
       <c r="M95">
-        <v>1.6086146430606591E-2</v>
+        <v>1.345604953149669E-2</v>
       </c>
       <c r="N95">
-        <v>1.4960778161798721E-2</v>
+        <v>1.2378967189898289E-2</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C96" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>2.7972027972027971</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F96">
-        <v>1.0097669853853344E-3</v>
+        <v>7.1805489439893402E-4</v>
       </c>
       <c r="G96" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H96">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I96">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J96">
         <v>16792</v>
       </c>
       <c r="K96">
-        <v>19.84869976359338</v>
+        <v>69.484137931034482</v>
       </c>
       <c r="L96">
-        <v>0.82066171944555144</v>
+        <v>0.72534644125775571</v>
       </c>
       <c r="M96">
-        <v>1.8080143601478461E-2</v>
+        <v>1.345604953149669E-2</v>
       </c>
       <c r="N96">
-        <v>1.6815277588206303E-2</v>
+        <v>1.2378967189898289E-2</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C97" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>4.895104895104895</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F97">
-        <v>1.1344997508273952E-3</v>
+        <v>7.1805489439893402E-4</v>
       </c>
       <c r="G97" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="H97">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I97">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="J97">
         <v>16792</v>
       </c>
       <c r="K97">
-        <v>5.954609929078015</v>
+        <v>69.484137931034482</v>
       </c>
       <c r="L97">
-        <v>0.85497941405066691</v>
+        <v>0.72534644125775571</v>
       </c>
       <c r="M97">
-        <v>1.9920002141107986E-2</v>
+        <v>1.345604953149669E-2</v>
       </c>
       <c r="N97">
-        <v>1.8526421744404956E-2</v>
+        <v>1.2378967189898289E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="C98" t="s">
-        <v>297</v>
+        <v>389</v>
       </c>
       <c r="D98">
         <v>6</v>
       </c>
       <c r="E98">
-        <v>4.1958041958041958</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F98">
-        <v>1.13594368470751E-3</v>
+        <v>7.7541762261896456E-4</v>
       </c>
       <c r="G98" t="s">
-        <v>255</v>
+        <v>390</v>
       </c>
       <c r="H98">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I98">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J98">
         <v>16792</v>
       </c>
       <c r="K98">
-        <v>7.6016296966953369</v>
+        <v>8.2719211822660093</v>
       </c>
       <c r="L98">
-        <v>0.85533557043808162</v>
+        <v>0.75229516607710634</v>
       </c>
       <c r="M98">
-        <v>1.9920002141107986E-2</v>
+        <v>1.4381199000943479E-2</v>
       </c>
       <c r="N98">
-        <v>1.8526421744404956E-2</v>
+        <v>1.323006356117924E-2</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="C99" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>3.4965034965034967</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F99">
-        <v>1.2148574821015232E-3</v>
+        <v>8.4395061811263973E-4</v>
       </c>
       <c r="G99" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="H99">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I99">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J99">
         <v>16792</v>
       </c>
       <c r="K99">
-        <v>10.633232016210741</v>
+        <v>21.055799373040752</v>
       </c>
       <c r="L99">
-        <v>0.87352730316903049</v>
+        <v>0.7810491916780935</v>
       </c>
       <c r="M99">
-        <v>2.1086454867905009E-2</v>
+        <v>1.5492522061067745E-2</v>
       </c>
       <c r="N99">
-        <v>1.9611270782496016E-2</v>
+        <v>1.4252431356902233E-2</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B100" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C100" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="D100">
         <v>4</v>
       </c>
       <c r="E100">
-        <v>2.7972027972027971</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F100">
-        <v>1.2814284176782213E-3</v>
+        <v>9.644742675392825E-4</v>
       </c>
       <c r="G100" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="H100">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I100">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J100">
         <v>16792</v>
       </c>
       <c r="K100">
-        <v>18.321876704855427</v>
+        <v>20.140329835082458</v>
       </c>
       <c r="L100">
-        <v>0.88708359397102876</v>
+        <v>0.82376315354871044</v>
       </c>
       <c r="M100">
-        <v>2.2017270085562167E-2</v>
+        <v>1.7179101062407616E-2</v>
       </c>
       <c r="N100">
-        <v>2.047696724007016E-2</v>
+        <v>1.5804009037401114E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B101" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="C101" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101">
-        <v>2.0979020979020979</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F101">
-        <v>1.4101567193939471E-3</v>
+        <v>9.644742675392825E-4</v>
       </c>
       <c r="G101" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="H101">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I101">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J101">
         <v>16792</v>
       </c>
       <c r="K101">
-        <v>51.039513677811549</v>
+        <v>20.140329835082458</v>
       </c>
       <c r="L101">
-        <v>0.90931555411670195</v>
+        <v>0.82376315354871044</v>
       </c>
       <c r="M101">
-        <v>2.3749273066228753E-2</v>
+        <v>1.7179101062407616E-2</v>
       </c>
       <c r="N101">
-        <v>2.2087801287932914E-2</v>
+        <v>1.5804009037401114E-2</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B102" t="s">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="C102" t="s">
-        <v>308</v>
+        <v>392</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E102">
-        <v>2.0979020979020979</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F102">
-        <v>1.4101567193939471E-3</v>
+        <v>9.644742675392825E-4</v>
       </c>
       <c r="G102" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="H102">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I102">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J102">
         <v>16792</v>
       </c>
       <c r="K102">
-        <v>51.039513677811549</v>
+        <v>20.140329835082458</v>
       </c>
       <c r="L102">
-        <v>0.90931555411670195</v>
+        <v>0.82376315354871044</v>
       </c>
       <c r="M102">
-        <v>2.3749273066228753E-2</v>
+        <v>1.7179101062407616E-2</v>
       </c>
       <c r="N102">
-        <v>2.2087801287932914E-2</v>
+        <v>1.5804009037401114E-2</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B103" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="C103" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>3.4965034965034967</v>
+        <v>5.4421768707482991</v>
       </c>
       <c r="F103">
-        <v>1.4766651830413421E-3</v>
+        <v>1.0537053628514373E-3</v>
       </c>
       <c r="G103" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="H103">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I103">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>16792</v>
       </c>
       <c r="K103">
-        <v>10.092559201827143</v>
+        <v>5.0350824587706144</v>
       </c>
       <c r="L103">
-        <v>0.91902897087414692</v>
+        <v>0.84992428720054569</v>
       </c>
       <c r="M103">
-        <v>2.4625563493660029E-2</v>
+        <v>1.8584470076173878E-2</v>
       </c>
       <c r="N103">
-        <v>2.2902787446778462E-2</v>
+        <v>1.7096886034501265E-2</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <v>3.4965034965034967</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F104">
-        <v>1.5720199103847535E-3</v>
+        <v>1.0953664369623797E-3</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>197</v>
       </c>
       <c r="H104">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I104">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="J104">
         <v>16792</v>
       </c>
       <c r="K104">
-        <v>9.9243498817966902</v>
+        <v>19.301149425287356</v>
       </c>
       <c r="L104">
-        <v>0.93116960667221127</v>
+        <v>0.86077225783968148</v>
       </c>
       <c r="M104">
-        <v>2.5961222015188988E-2</v>
+        <v>1.9131691457236127E-2</v>
       </c>
       <c r="N104">
-        <v>2.4145004837171649E-2</v>
+        <v>1.7600305370609109E-2</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B105" t="s">
-        <v>316</v>
+        <v>397</v>
       </c>
       <c r="C105" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>2.7972027972027971</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F105">
-        <v>1.595068273320114E-3</v>
+        <v>1.171473730538247E-3</v>
       </c>
       <c r="G105" t="s">
-        <v>318</v>
+        <v>399</v>
       </c>
       <c r="H105">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I105">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="J105">
         <v>16792</v>
       </c>
       <c r="K105">
-        <v>17.013171225937185</v>
+        <v>5.9171406997231317</v>
       </c>
       <c r="L105">
-        <v>0.93382002241557149</v>
+        <v>0.87860634119410674</v>
       </c>
       <c r="M105">
-        <v>2.5978373828699067E-2</v>
+        <v>2.0264242704214484E-2</v>
       </c>
       <c r="N105">
-        <v>2.416095672957197E-2</v>
+        <v>1.8642202154238448E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B106" t="s">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="C106" t="s">
-        <v>320</v>
+        <v>401</v>
       </c>
       <c r="D106">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>6.2937062937062942</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F106">
-        <v>1.6036033227592016E-3</v>
+        <v>1.2369571791627301E-3</v>
       </c>
       <c r="G106" t="s">
-        <v>321</v>
+        <v>402</v>
       </c>
       <c r="H106">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I106">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="J106">
         <v>16792</v>
       </c>
       <c r="K106">
-        <v>4.0909533863894749</v>
+        <v>18.529103448275862</v>
       </c>
       <c r="L106">
-        <v>0.93477540719019292</v>
+        <v>0.89211219053496382</v>
       </c>
       <c r="M106">
-        <v>2.5978373828699067E-2</v>
+        <v>2.1193199669654775E-2</v>
       </c>
       <c r="N106">
-        <v>2.416095672957197E-2</v>
+        <v>1.9496801252517317E-2</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="C107" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>2.7972027972027971</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F107">
-        <v>1.7683272330063506E-3</v>
+        <v>1.2876791340703107E-3</v>
       </c>
       <c r="G107" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="H107">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I107">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="J107">
         <v>16792</v>
       </c>
       <c r="K107">
-        <v>16.426510149180729</v>
+        <v>7.3919295671313279</v>
       </c>
       <c r="L107">
-        <v>0.9507372597856697</v>
+        <v>0.90153238046462536</v>
       </c>
       <c r="M107">
-        <v>2.8111445077979462E-2</v>
+        <v>2.1854101530117822E-2</v>
       </c>
       <c r="N107">
-        <v>2.6144800772112588E-2</v>
+        <v>2.0104801574399662E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B108" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="C108" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>2.7972027972027971</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="F108">
-        <v>1.7683272330063506E-3</v>
+        <v>1.3122419328171159E-3</v>
       </c>
       <c r="G108" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="H108">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I108">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="J108">
         <v>16792</v>
       </c>
       <c r="K108">
-        <v>16.426510149180729</v>
+        <v>5.7903448275862077</v>
       </c>
       <c r="L108">
-        <v>0.9507372597856697</v>
+        <v>0.90579419862019384</v>
       </c>
       <c r="M108">
-        <v>2.8111445077979462E-2</v>
+        <v>2.2062833991943843E-2</v>
       </c>
       <c r="N108">
-        <v>2.6144800772112588E-2</v>
+        <v>2.029682615712455E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="C109" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>4.1958041958041958</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F109">
-        <v>1.8578355290289263E-3</v>
+        <v>1.3480748009731989E-3</v>
       </c>
       <c r="G109" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="H109">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I109">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="J109">
         <v>16792</v>
       </c>
       <c r="K109">
-        <v>6.805268490374873</v>
+        <v>10.339901477832512</v>
       </c>
       <c r="L109">
-        <v>0.95770631189729372</v>
+        <v>0.91168300349445974</v>
       </c>
       <c r="M109">
-        <v>2.8655562717978204E-2</v>
+        <v>2.245543117547023E-2</v>
       </c>
       <c r="N109">
-        <v>2.6650852568983842E-2</v>
+        <v>2.0657998107505966E-2</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="C110" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E110">
-        <v>2.0979020979020979</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F110">
-        <v>1.8699397188098651E-3</v>
+        <v>1.3895659318157851E-3</v>
       </c>
       <c r="G110" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="H110">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I110">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J110">
         <v>16792</v>
       </c>
       <c r="K110">
-        <v>44.659574468085104</v>
+        <v>17.816445623342172</v>
       </c>
       <c r="L110">
-        <v>0.9585697958774505</v>
+        <v>0.9180435737924777</v>
       </c>
       <c r="M110">
-        <v>2.8655562717978204E-2</v>
+        <v>2.2934212030610985E-2</v>
       </c>
       <c r="N110">
-        <v>2.6650852568983842E-2</v>
+        <v>2.109845520325802E-2</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B111" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="C111" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111">
-        <v>2.0979020979020979</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F111">
-        <v>1.8699397188098651E-3</v>
+        <v>1.4909985085699844E-3</v>
       </c>
       <c r="G111" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="H111">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I111">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J111">
         <v>16792</v>
       </c>
       <c r="K111">
-        <v>44.659574468085104</v>
+        <v>49.631527093596063</v>
       </c>
       <c r="L111">
-        <v>0.9585697958774505</v>
+        <v>0.93173157815252983</v>
       </c>
       <c r="M111">
-        <v>2.8655562717978204E-2</v>
+        <v>2.4164921774030651E-2</v>
       </c>
       <c r="N111">
-        <v>2.6650852568983842E-2</v>
+        <v>2.2230653438588505E-2</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B112" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="D112">
         <v>3</v>
       </c>
       <c r="E112">
-        <v>2.0979020979020979</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F112">
-        <v>1.8699397188098651E-3</v>
+        <v>1.4909985085699844E-3</v>
       </c>
       <c r="G112" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="H112">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J112">
         <v>16792</v>
       </c>
       <c r="K112">
-        <v>44.659574468085104</v>
+        <v>49.631527093596063</v>
       </c>
       <c r="L112">
-        <v>0.9585697958774505</v>
+        <v>0.93173157815252983</v>
       </c>
       <c r="M112">
-        <v>2.8655562717978204E-2</v>
+        <v>2.4164921774030651E-2</v>
       </c>
       <c r="N112">
-        <v>2.6650852568983842E-2</v>
+        <v>2.2230653438588505E-2</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B113" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="C113" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113">
-        <v>2.7972027972027971</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F113">
-        <v>1.9528992963628571E-3</v>
+        <v>1.5535017079693796E-3</v>
       </c>
       <c r="G113" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="H113">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I113">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J113">
         <v>16792</v>
       </c>
       <c r="K113">
-        <v>15.878959810874704</v>
+        <v>17.156577266922096</v>
       </c>
       <c r="L113">
-        <v>0.96403214235503787</v>
+        <v>0.93900251515021405</v>
       </c>
       <c r="M113">
-        <v>2.9659658063510893E-2</v>
+        <v>2.4953121184258159E-2</v>
       </c>
       <c r="N113">
-        <v>2.7584702561125357E-2</v>
+        <v>2.2955761845440386E-2</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B114" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="C114" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E114">
-        <v>4.1958041958041958</v>
+        <v>7.4829931972789119</v>
       </c>
       <c r="F114">
-        <v>2.2782066931757191E-3</v>
+        <v>1.6058735265398309E-3</v>
       </c>
       <c r="G114" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="H114">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I114">
-        <v>110</v>
+        <v>379</v>
       </c>
       <c r="J114">
         <v>16792</v>
       </c>
       <c r="K114">
-        <v>6.4959381044487428</v>
+        <v>3.361150031844236</v>
       </c>
       <c r="L114">
-        <v>0.97934195791131884</v>
+        <v>0.94449535777390814</v>
       </c>
       <c r="M114">
-        <v>3.4294067124707062E-2</v>
+        <v>2.5566074993319962E-2</v>
       </c>
       <c r="N114">
-        <v>3.1894893704460067E-2</v>
+        <v>2.3519652092242656E-2</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B115" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="C115" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>2.7972027972027971</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F115">
-        <v>2.3569913492504919E-3</v>
+        <v>1.6376755460142463E-3</v>
       </c>
       <c r="G115" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="H115">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I115">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="J115">
         <v>16792</v>
       </c>
       <c r="K115">
-        <v>14.886524822695035</v>
+        <v>9.8141437755698426</v>
       </c>
       <c r="L115">
-        <v>0.9819385346649997</v>
+        <v>0.94758662050996012</v>
       </c>
       <c r="M115">
-        <v>3.5062383929716716E-2</v>
+        <v>2.5843669362102011E-2</v>
       </c>
       <c r="N115">
-        <v>3.2609459951094558E-2</v>
+        <v>2.3775026567136648E-2</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="C116" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E116">
-        <v>2.0979020979020979</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F116">
-        <v>2.391085558993027E-3</v>
+        <v>1.7290632832510286E-3</v>
       </c>
       <c r="G116" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="H116">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I116">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J116">
         <v>16792</v>
       </c>
       <c r="K116">
-        <v>39.697399527186761</v>
+        <v>16.543842364532019</v>
       </c>
       <c r="L116">
-        <v>0.98295855321969161</v>
+        <v>0.95554496941816991</v>
       </c>
       <c r="M116">
-        <v>3.5062383929716716E-2</v>
+        <v>2.7048563883205222E-2</v>
       </c>
       <c r="N116">
-        <v>3.2609459951094558E-2</v>
+        <v>2.4883475945916979E-2</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="C117" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>2.0979020979020979</v>
+        <v>6.1224489795918364</v>
       </c>
       <c r="F117">
-        <v>2.391085558993027E-3</v>
+        <v>1.9160811238234999E-3</v>
       </c>
       <c r="G117" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="H117">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I117">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="J117">
         <v>16792</v>
       </c>
       <c r="K117">
-        <v>39.697399527186761</v>
+        <v>3.9780994998683865</v>
       </c>
       <c r="L117">
-        <v>0.98295855321969161</v>
+        <v>0.96826504615997355</v>
       </c>
       <c r="M117">
-        <v>3.5062383929716716E-2</v>
+        <v>2.9219104630006956E-2</v>
       </c>
       <c r="N117">
-        <v>3.2609459951094558E-2</v>
+        <v>2.6880276910873545E-2</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="C118" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>2.0979020979020979</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F118">
-        <v>2.9725538050382463E-3</v>
+        <v>1.9165393809565429E-3</v>
       </c>
       <c r="G118" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="H118">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I118">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J118">
         <v>16792</v>
       </c>
       <c r="K118">
-        <v>35.727659574468085</v>
+        <v>15.973365041617122</v>
       </c>
       <c r="L118">
-        <v>0.99367878619210526</v>
+        <v>0.96829124801026945</v>
       </c>
       <c r="M118">
-        <v>4.2490033801429052E-2</v>
+        <v>2.9219104630006956E-2</v>
       </c>
       <c r="N118">
-        <v>3.9517479996390804E-2</v>
+        <v>2.6880276910873545E-2</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B119" t="s">
-        <v>357</v>
+        <v>298</v>
       </c>
       <c r="C119" t="s">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>2.0979020979020979</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F119">
-        <v>2.9725538050382463E-3</v>
+        <v>1.9165393809565429E-3</v>
       </c>
       <c r="G119" t="s">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="H119">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I119">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J119">
         <v>16792</v>
       </c>
       <c r="K119">
-        <v>35.727659574468085</v>
+        <v>15.973365041617122</v>
       </c>
       <c r="L119">
-        <v>0.99367878619210526</v>
+        <v>0.96829124801026945</v>
       </c>
       <c r="M119">
-        <v>4.2490033801429052E-2</v>
+        <v>2.9219104630006956E-2</v>
       </c>
       <c r="N119">
-        <v>3.9517479996390804E-2</v>
+        <v>2.6880276910873545E-2</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="C120" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="D120">
         <v>3</v>
       </c>
       <c r="E120">
-        <v>2.0979020979020979</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F120">
-        <v>2.9725538050382463E-3</v>
+        <v>1.9768264610565238E-3</v>
       </c>
       <c r="G120" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="H120">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I120">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J120">
         <v>16792</v>
       </c>
       <c r="K120">
-        <v>35.727659574468085</v>
+        <v>43.427586206896557</v>
       </c>
       <c r="L120">
-        <v>0.99367878619210526</v>
+        <v>0.97155635584672817</v>
       </c>
       <c r="M120">
-        <v>4.2490033801429052E-2</v>
+        <v>2.9390998375542862E-2</v>
       </c>
       <c r="N120">
-        <v>3.9517479996390804E-2</v>
+        <v>2.703841151279791E-2</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B121" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="C121" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="D121">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>4.895104895104895</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F121">
-        <v>3.2079015094591558E-3</v>
+        <v>1.9768264610565238E-3</v>
       </c>
       <c r="G121" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="H121">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I121">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="J121">
         <v>16792</v>
       </c>
       <c r="K121">
-        <v>4.8467755236681507</v>
+        <v>43.427586206896557</v>
       </c>
       <c r="L121">
-        <v>0.99576939983394985</v>
+        <v>0.97155635584672817</v>
       </c>
       <c r="M121">
-        <v>4.5472003896583534E-2</v>
+        <v>2.9390998375542862E-2</v>
       </c>
       <c r="N121">
-        <v>4.2290834899703207E-2</v>
+        <v>2.703841151279791E-2</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B122" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="C122" t="s">
-        <v>367</v>
+        <v>305</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>4.1958041958041958</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F122">
-        <v>3.3206474021274255E-3</v>
+        <v>1.9768264610565238E-3</v>
       </c>
       <c r="G122" t="s">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="H122">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I122">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="J122">
         <v>16792</v>
       </c>
       <c r="K122">
-        <v>5.9546099290780141</v>
+        <v>43.427586206896557</v>
       </c>
       <c r="L122">
-        <v>0.99650988381207384</v>
+        <v>0.97155635584672817</v>
       </c>
       <c r="M122">
-        <v>4.6681167198502072E-2</v>
+        <v>2.9390998375542862E-2</v>
       </c>
       <c r="N122">
-        <v>4.3415406530294104E-2</v>
+        <v>2.703841151279791E-2</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B123" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="C123" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E123">
-        <v>3.4965034965034967</v>
+        <v>4.0816326530612246</v>
       </c>
       <c r="F123">
-        <v>3.5594004896736878E-3</v>
+        <v>2.1015406520399956E-3</v>
       </c>
       <c r="G123" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="H123">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I123">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="J123">
         <v>16792</v>
       </c>
       <c r="K123">
-        <v>7.939479905437353</v>
+        <v>6.617536945812807</v>
       </c>
       <c r="L123">
-        <v>0.99767803422930013</v>
+        <v>0.97728318375742229</v>
       </c>
       <c r="M123">
-        <v>4.877977801596569E-2</v>
+        <v>3.0951705108479464E-2</v>
       </c>
       <c r="N123">
-        <v>4.5367200953120357E-2</v>
+        <v>2.8474192303798506E-2</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B124" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="D124">
         <v>4</v>
       </c>
       <c r="E124">
-        <v>2.7972027972027971</v>
+        <v>2.7210884353741496</v>
       </c>
       <c r="F124">
-        <v>3.5819659208991645E-3</v>
+        <v>2.1162088539983179E-3</v>
       </c>
       <c r="G124" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="H124">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I124">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J124">
         <v>16792</v>
       </c>
       <c r="K124">
-        <v>12.874832279087599</v>
+        <v>15.440919540229885</v>
       </c>
       <c r="L124">
-        <v>0.99776577861039906</v>
+        <v>0.97787603098206233</v>
       </c>
       <c r="M124">
-        <v>4.877977801596569E-2</v>
+        <v>3.0951705108479464E-2</v>
       </c>
       <c r="N124">
-        <v>4.5367200953120357E-2</v>
+        <v>2.8474192303798506E-2</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B125" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="C125" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E125">
-        <v>2.0979020979020979</v>
+        <v>3.4013605442176873</v>
       </c>
       <c r="F125">
-        <v>3.6133168900715326E-3</v>
+        <v>2.341603902463997E-3</v>
       </c>
       <c r="G125" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="H125">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I125">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="J125">
         <v>16792</v>
       </c>
       <c r="K125">
-        <v>32.479690522243715</v>
+        <v>8.908222811671088</v>
       </c>
       <c r="L125">
-        <v>0.99788221178443826</v>
+        <v>0.98526434467528312</v>
       </c>
       <c r="M125">
-        <v>4.877977801596569E-2</v>
+        <v>3.3972140488167185E-2</v>
       </c>
       <c r="N125">
-        <v>4.5367200953120357E-2</v>
+        <v>3.1252858536918671E-2</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B126" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="C126" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="D126">
         <v>3</v>
       </c>
       <c r="E126">
-        <v>2.0979020979020979</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F126">
-        <v>3.6133168900715326E-3</v>
+        <v>2.527360901010761E-3</v>
       </c>
       <c r="G126" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="H126">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I126">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J126">
         <v>16792</v>
       </c>
       <c r="K126">
-        <v>32.479690522243715</v>
+        <v>38.602298850574712</v>
       </c>
       <c r="L126">
-        <v>0.99788221178443826</v>
+        <v>0.98945894413720792</v>
       </c>
       <c r="M126">
-        <v>4.877977801596569E-2</v>
+        <v>3.6085097308875866E-2</v>
       </c>
       <c r="N126">
-        <v>4.5367200953120357E-2</v>
+        <v>3.3196684850577848E-2</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="B127" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127">
-        <v>2.0979020979020979</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="F127">
-        <v>3.6133168900715326E-3</v>
+        <v>2.527360901010761E-3</v>
       </c>
       <c r="G127" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="H127">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I127">
+        <v>9</v>
+      </c>
+      <c r="J127">
+        <v>16792</v>
+      </c>
+      <c r="K127">
+        <v>38.602298850574712</v>
+      </c>
+      <c r="L127">
+        <v>0.98945894413720792</v>
+      </c>
+      <c r="M127">
+        <v>3.6085097308875866E-2</v>
+      </c>
+      <c r="N127">
+        <v>3.3196684850577848E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" t="s">
+        <v>318</v>
+      </c>
+      <c r="C128" t="s">
+        <v>319</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>2.7210884353741496</v>
+      </c>
+      <c r="F128">
+        <v>2.5531950614430684E-3</v>
+      </c>
+      <c r="G128" t="s">
+        <v>320</v>
+      </c>
+      <c r="H128">
+        <v>145</v>
+      </c>
+      <c r="I128">
+        <v>32</v>
+      </c>
+      <c r="J128">
+        <v>16792</v>
+      </c>
+      <c r="K128">
+        <v>14.475862068965517</v>
+      </c>
+      <c r="L128">
+        <v>0.98993882760180474</v>
+      </c>
+      <c r="M128">
+        <v>3.6166912720756533E-2</v>
+      </c>
+      <c r="N128">
+        <v>3.3271951391246286E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>357</v>
+      </c>
+      <c r="B129" t="s">
+        <v>415</v>
+      </c>
+      <c r="C129" t="s">
+        <v>416</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="F129">
+        <v>3.1205283568080558E-3</v>
+      </c>
+      <c r="G129" t="s">
+        <v>417</v>
+      </c>
+      <c r="H129">
+        <v>145</v>
+      </c>
+      <c r="I129">
+        <v>115</v>
+      </c>
+      <c r="J129">
+        <v>16792</v>
+      </c>
+      <c r="K129">
+        <v>6.0420989505247373</v>
+      </c>
+      <c r="L129">
+        <v>0.99638479905052391</v>
+      </c>
+      <c r="M129">
+        <v>4.3141281366979339E-2</v>
+      </c>
+      <c r="N129">
+        <v>3.9688060401529078E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>357</v>
+      </c>
+      <c r="B130" t="s">
+        <v>332</v>
+      </c>
+      <c r="C130" t="s">
+        <v>333</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="F130">
+        <v>3.1414718505137821E-3</v>
+      </c>
+      <c r="G130" t="s">
+        <v>334</v>
+      </c>
+      <c r="H130">
+        <v>145</v>
+      </c>
+      <c r="I130">
+        <v>10</v>
+      </c>
+      <c r="J130">
+        <v>16792</v>
+      </c>
+      <c r="K130">
+        <v>34.742068965517241</v>
+      </c>
+      <c r="L130">
+        <v>0.99651888808595446</v>
+      </c>
+      <c r="M130">
+        <v>4.3141281366979339E-2</v>
+      </c>
+      <c r="N130">
+        <v>3.9688060401529078E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>357</v>
+      </c>
+      <c r="B131" t="s">
+        <v>329</v>
+      </c>
+      <c r="C131" t="s">
+        <v>330</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="F131">
+        <v>3.1414718505137821E-3</v>
+      </c>
+      <c r="G131" t="s">
+        <v>331</v>
+      </c>
+      <c r="H131">
+        <v>145</v>
+      </c>
+      <c r="I131">
+        <v>10</v>
+      </c>
+      <c r="J131">
+        <v>16792</v>
+      </c>
+      <c r="K131">
+        <v>34.742068965517241</v>
+      </c>
+      <c r="L131">
+        <v>0.99651888808595446</v>
+      </c>
+      <c r="M131">
+        <v>4.3141281366979339E-2</v>
+      </c>
+      <c r="N131">
+        <v>3.9688060401529078E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>357</v>
+      </c>
+      <c r="B132" t="s">
+        <v>327</v>
+      </c>
+      <c r="C132" t="s">
+        <v>328</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="F132">
+        <v>3.1414718505137821E-3</v>
+      </c>
+      <c r="G132" t="s">
+        <v>212</v>
+      </c>
+      <c r="H132">
+        <v>145</v>
+      </c>
+      <c r="I132">
+        <v>10</v>
+      </c>
+      <c r="J132">
+        <v>16792</v>
+      </c>
+      <c r="K132">
+        <v>34.742068965517241</v>
+      </c>
+      <c r="L132">
+        <v>0.99651888808595446</v>
+      </c>
+      <c r="M132">
+        <v>4.3141281366979339E-2</v>
+      </c>
+      <c r="N132">
+        <v>3.9688060401529078E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>357</v>
+      </c>
+      <c r="B133" t="s">
+        <v>335</v>
+      </c>
+      <c r="C133" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="F133">
+        <v>3.6833047425851415E-3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>337</v>
+      </c>
+      <c r="H133">
+        <v>145</v>
+      </c>
+      <c r="I133">
+        <v>172</v>
+      </c>
+      <c r="J133">
+        <v>16792</v>
+      </c>
+      <c r="K133">
+        <v>4.7130713712910985</v>
+      </c>
+      <c r="L133">
+        <v>0.99869100885607454</v>
+      </c>
+      <c r="M133">
+        <v>5.0198979029626285E-2</v>
+      </c>
+      <c r="N133">
+        <v>4.6180828401351584E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>357</v>
+      </c>
+      <c r="B134" t="s">
+        <v>346</v>
+      </c>
+      <c r="C134" t="s">
+        <v>347</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="F134">
+        <v>3.8180437198966138E-3</v>
+      </c>
+      <c r="G134" t="s">
+        <v>348</v>
+      </c>
+      <c r="H134">
+        <v>145</v>
+      </c>
+      <c r="I134">
         <v>11</v>
       </c>
-      <c r="J127">
-        <v>16792</v>
-      </c>
-      <c r="K127">
-        <v>32.479690522243715</v>
-      </c>
-      <c r="L127">
-        <v>0.99788221178443826</v>
-      </c>
-      <c r="M127">
-        <v>4.877977801596569E-2</v>
-      </c>
-      <c r="N127">
-        <v>4.5367200953120357E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" t="s">
-        <v>384</v>
+      <c r="J134">
+        <v>16792</v>
+      </c>
+      <c r="K134">
+        <v>31.58369905956113</v>
+      </c>
+      <c r="L134">
+        <v>0.99897371166881166</v>
+      </c>
+      <c r="M134">
+        <v>5.0878967793288953E-2</v>
+      </c>
+      <c r="N134">
+        <v>4.6806387825399233E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>357</v>
+      </c>
+      <c r="B135" t="s">
+        <v>352</v>
+      </c>
+      <c r="C135" t="s">
+        <v>353</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="F135">
+        <v>3.8180437198966138E-3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>354</v>
+      </c>
+      <c r="H135">
+        <v>145</v>
+      </c>
+      <c r="I135">
+        <v>11</v>
+      </c>
+      <c r="J135">
+        <v>16792</v>
+      </c>
+      <c r="K135">
+        <v>31.58369905956113</v>
+      </c>
+      <c r="L135">
+        <v>0.99897371166881166</v>
+      </c>
+      <c r="M135">
+        <v>5.0878967793288953E-2</v>
+      </c>
+      <c r="N135">
+        <v>4.6806387825399233E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>357</v>
+      </c>
+      <c r="B136" t="s">
+        <v>349</v>
+      </c>
+      <c r="C136" t="s">
+        <v>350</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="F136">
+        <v>3.8180437198966138E-3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>351</v>
+      </c>
+      <c r="H136">
+        <v>145</v>
+      </c>
+      <c r="I136">
+        <v>11</v>
+      </c>
+      <c r="J136">
+        <v>16792</v>
+      </c>
+      <c r="K136">
+        <v>31.58369905956113</v>
+      </c>
+      <c r="L136">
+        <v>0.99897371166881166</v>
+      </c>
+      <c r="M136">
+        <v>5.0878967793288953E-2</v>
+      </c>
+      <c r="N136">
+        <v>4.6806387825399233E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>357</v>
+      </c>
+      <c r="B137" t="s">
+        <v>343</v>
+      </c>
+      <c r="C137" t="s">
+        <v>344</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>2.7210884353741496</v>
+      </c>
+      <c r="F137">
+        <v>3.8767423315386445E-3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>345</v>
+      </c>
+      <c r="H137">
+        <v>145</v>
+      </c>
+      <c r="I137">
+        <v>37</v>
+      </c>
+      <c r="J137">
+        <v>16792</v>
+      </c>
+      <c r="K137">
+        <v>12.519664492078286</v>
+      </c>
+      <c r="L137">
+        <v>0.99907693711878676</v>
+      </c>
+      <c r="M137">
+        <v>5.1281319517926631E-2</v>
+      </c>
+      <c r="N137">
+        <v>4.717653351982689E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>357</v>
+      </c>
+      <c r="B138" t="s">
+        <v>340</v>
+      </c>
+      <c r="C138" t="s">
+        <v>341</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>3.4013605442176873</v>
+      </c>
+      <c r="F138">
+        <v>3.935818006684768E-3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>342</v>
+      </c>
+      <c r="H138">
+        <v>145</v>
+      </c>
+      <c r="I138">
+        <v>75</v>
+      </c>
+      <c r="J138">
+        <v>16792</v>
+      </c>
+      <c r="K138">
+        <v>7.7204597701149424</v>
+      </c>
+      <c r="L138">
+        <v>0.99917035039979318</v>
+      </c>
+      <c r="M138">
+        <v>5.1682748861502904E-2</v>
+      </c>
+      <c r="N138">
+        <v>4.7545830664695553E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
